--- a/diagrams/TableNodeKind.xlsx
+++ b/diagrams/TableNodeKind.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salgo\Developer\tesis\shacl_integration\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3451B8-10E7-424D-9B76-DB13957508BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BFB29-B748-45DA-A853-50DF9F2891EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{B07788D2-E141-4477-B793-2407B8167394}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" activeTab="1" xr2:uid="{B07788D2-E141-4477-B793-2407B8167394}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="159">
   <si>
     <t>IRI</t>
   </si>
@@ -69,13 +70,457 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>DATASETS</t>
+  </si>
+  <si>
+    <t>TOTAL EXECUTION</t>
+  </si>
+  <si>
+    <t>IDENTIFICATION EXECUTION</t>
+  </si>
+  <si>
+    <t>INTEGRATION EXECUTION</t>
+  </si>
+  <si>
+    <t>NUMBER OF INCONCISTENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF INTEGRATIONS </t>
+  </si>
+  <si>
+    <t>anatomy-dataset</t>
+  </si>
+  <si>
+    <t>1650.10 seconds</t>
+  </si>
+  <si>
+    <t>1648 seconds</t>
+  </si>
+  <si>
+    <t>2.10 seconds</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>saref-sosa-ssn</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>1633.15 seconds</t>
+  </si>
+  <si>
+    <t>1631.05 seconds</t>
+  </si>
+  <si>
+    <t>3.77 seconds</t>
+  </si>
+  <si>
+    <t>3.67 seconds</t>
+  </si>
+  <si>
+    <t>3.76 seconds</t>
+  </si>
+  <si>
+    <t>0.10 seconds</t>
+  </si>
+  <si>
+    <t>0.09 seconds</t>
+  </si>
+  <si>
+    <t>mse-(emmo-material_information)</t>
+  </si>
+  <si>
+    <t>25.87 seconds</t>
+  </si>
+  <si>
+    <t>0.28 seconds</t>
+  </si>
+  <si>
+    <t>25.59 seconds</t>
+  </si>
+  <si>
+    <t>25.82 seconds</t>
+  </si>
+  <si>
+    <t>0.25 seconds</t>
+  </si>
+  <si>
+    <t>25.57 seconds</t>
+  </si>
+  <si>
+    <t>mse-(matonto-material_information)</t>
+  </si>
+  <si>
+    <t>65.59 seconds</t>
+  </si>
+  <si>
+    <t>0.44 seconds</t>
+  </si>
+  <si>
+    <t>65.15 seconds</t>
+  </si>
+  <si>
+    <t>64.40 seconds</t>
+  </si>
+  <si>
+    <t>63.97 seconds</t>
+  </si>
+  <si>
+    <t>0.43 seconds</t>
+  </si>
+  <si>
+    <t>mse-(matonto-material_information_reduced)</t>
+  </si>
+  <si>
+    <t>53.71 seconds</t>
+  </si>
+  <si>
+    <t>0.37 seconds</t>
+  </si>
+  <si>
+    <t>53.33 seconds</t>
+  </si>
+  <si>
+    <t>54.12 seconds</t>
+  </si>
+  <si>
+    <t>53.75 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(cmt-conference)</t>
+  </si>
+  <si>
+    <t>1.78 seconds</t>
+  </si>
+  <si>
+    <t>0.06 seconds</t>
+  </si>
+  <si>
+    <t>1.72 seconds</t>
+  </si>
+  <si>
+    <t>1.65 seconds</t>
+  </si>
+  <si>
+    <t>0.07 seconds</t>
+  </si>
+  <si>
+    <t>1.58 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(cmt-confOf)</t>
+  </si>
+  <si>
+    <t>1.51 seconds</t>
+  </si>
+  <si>
+    <t>0.04 seconds</t>
+  </si>
+  <si>
+    <t>1.47 seconds</t>
+  </si>
+  <si>
+    <t>1.50 seconds</t>
+  </si>
+  <si>
+    <t>0.05 seconds</t>
+  </si>
+  <si>
+    <t>1.45 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(cmt-edas)</t>
+  </si>
+  <si>
+    <t>3.31 seconds</t>
+  </si>
+  <si>
+    <t>3.23 seconds</t>
+  </si>
+  <si>
+    <t>3.25 seconds</t>
+  </si>
+  <si>
+    <t>0.08 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(cmt-ekaw)</t>
+  </si>
+  <si>
+    <t>1.61 seconds</t>
+  </si>
+  <si>
+    <t>1.56 seconds</t>
+  </si>
+  <si>
+    <t>1.62 seconds</t>
+  </si>
+  <si>
+    <t>1.57 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(cmt-iasted)</t>
+  </si>
+  <si>
+    <t>3.63 seconds</t>
+  </si>
+  <si>
+    <t>3.54 seconds</t>
+  </si>
+  <si>
+    <t>3.55 seconds</t>
+  </si>
+  <si>
+    <t>3.46 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(cmt-sigkdd)</t>
+  </si>
+  <si>
+    <t>1.06 seconds</t>
+  </si>
+  <si>
+    <t>1.02 seconds</t>
+  </si>
+  <si>
+    <t>1.04 seconds</t>
+  </si>
+  <si>
+    <t>0.99 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(conference-confOf)</t>
+  </si>
+  <si>
+    <t>1.96 seconds</t>
+  </si>
+  <si>
+    <t>1.91 seconds</t>
+  </si>
+  <si>
+    <t>1.81 seconds</t>
+  </si>
+  <si>
+    <t>1.74 seconds</t>
+  </si>
+  <si>
+    <t>3.62 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(conference-edas)</t>
+  </si>
+  <si>
+    <t>3.56 seconds</t>
+  </si>
+  <si>
+    <t>3.68 seconds</t>
+  </si>
+  <si>
+    <t>3.60 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(conference-ekaw)</t>
+  </si>
+  <si>
+    <t>2.02 seconds</t>
+  </si>
+  <si>
+    <t>1.97 seconds</t>
+  </si>
+  <si>
+    <t>1.90 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(conference-iasted)</t>
+  </si>
+  <si>
+    <t>3.89 seconds</t>
+  </si>
+  <si>
+    <t>3.80 seconds</t>
+  </si>
+  <si>
+    <t>3.79 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(conference-sigkdd)</t>
+  </si>
+  <si>
+    <t>1.41 seconds</t>
+  </si>
+  <si>
+    <t>1.36 seconds</t>
+  </si>
+  <si>
+    <t>1.33 seconds</t>
+  </si>
+  <si>
+    <t>1.39 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(confOf-edas)</t>
+  </si>
+  <si>
+    <t>3.49 seconds</t>
+  </si>
+  <si>
+    <t>3.43 seconds</t>
+  </si>
+  <si>
+    <t>3.52 seconds</t>
+  </si>
+  <si>
+    <t>3.45 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(confOf-ekaw)</t>
+  </si>
+  <si>
+    <t>1.79 seconds</t>
+  </si>
+  <si>
+    <t>1.75 seconds</t>
+  </si>
+  <si>
+    <t>1.77 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(confOf-iasted)</t>
+  </si>
+  <si>
+    <t>3.74 seconds</t>
+  </si>
+  <si>
+    <t>3.66 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(confOf-sigkdd)</t>
+  </si>
+  <si>
+    <t>1.23 seconds</t>
+  </si>
+  <si>
+    <t>1.19 seconds</t>
+  </si>
+  <si>
+    <t>1.25 seconds</t>
+  </si>
+  <si>
+    <t>1.20 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(edas-ekaw)</t>
+  </si>
+  <si>
+    <t>3.69 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(edas-iasted)</t>
+  </si>
+  <si>
+    <t>5.57 seconds</t>
+  </si>
+  <si>
+    <t>5.47 seconds</t>
+  </si>
+  <si>
+    <t>5.63 seconds</t>
+  </si>
+  <si>
+    <t>5.53 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(edas-sigkdd)</t>
+  </si>
+  <si>
+    <t>3.08 seconds</t>
+  </si>
+  <si>
+    <t>3.03 seconds</t>
+  </si>
+  <si>
+    <t>3.04 seconds</t>
+  </si>
+  <si>
+    <t>2.98 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(ekaw-iasted)</t>
+  </si>
+  <si>
+    <t>3.87 seconds</t>
+  </si>
+  <si>
+    <t>3.78 seconds</t>
+  </si>
+  <si>
+    <t>3.91 seconds</t>
+  </si>
+  <si>
+    <t>3.81 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(ekaw-sigkdd)</t>
+  </si>
+  <si>
+    <t>1.38 seconds</t>
+  </si>
+  <si>
+    <t>1.34 seconds</t>
+  </si>
+  <si>
+    <t>1.42 seconds</t>
+  </si>
+  <si>
+    <t>1.37 seconds</t>
+  </si>
+  <si>
+    <t>all-conference-(iasted-sigkdd)</t>
+  </si>
+  <si>
+    <t>3.33 seconds</t>
+  </si>
+  <si>
+    <t>3.30 seconds</t>
+  </si>
+  <si>
+    <t>3.22 seconds</t>
+  </si>
+  <si>
+    <t>ce-dataset-(BiOnto-CEON)</t>
+  </si>
+  <si>
+    <t>39.74 seconds</t>
+  </si>
+  <si>
+    <t>39.46 seconds</t>
+  </si>
+  <si>
+    <t>39.37 seconds</t>
+  </si>
+  <si>
+    <t>39.09 seconds</t>
+  </si>
+  <si>
+    <t>NUMBER OF TRIPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF TRIPLES ALIGNMENT IN REFERENCE </t>
+  </si>
+  <si>
+    <t>OPERATION TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +588,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +628,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -504,7 +969,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,6 +1018,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7C6B-FC15-41EF-81DC-0E014A9BDF86}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
@@ -981,7 +1455,7 @@
       <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1009,7 +1483,7 @@
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1036,7 +1510,7 @@
       <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1063,7 +1537,7 @@
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1090,7 +1564,7 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1117,7 +1591,7 @@
       <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1144,7 +1618,7 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1171,7 +1645,7 @@
       <c r="H8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1198,7 +1672,7 @@
       <c r="H9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1225,7 +1699,7 @@
       <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1252,7 +1726,7 @@
       <c r="H11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1279,7 +1753,7 @@
       <c r="H12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1306,7 +1780,7 @@
       <c r="H13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1333,7 +1807,7 @@
       <c r="H14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1360,7 +1834,7 @@
       <c r="H15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1387,18 +1861,18 @@
       <c r="H16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1425,7 +1899,7 @@
       <c r="H18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -1452,7 +1926,7 @@
       <c r="H19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1479,7 +1953,7 @@
       <c r="H20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -1506,7 +1980,7 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -1533,7 +2007,7 @@
       <c r="H22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -1560,7 +2034,7 @@
       <c r="H23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1587,7 +2061,7 @@
       <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -1614,7 +2088,7 @@
       <c r="H25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -1641,7 +2115,7 @@
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1668,7 +2142,7 @@
       <c r="H27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -1695,18 +2169,18 @@
       <c r="H28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="21"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -1733,7 +2207,7 @@
       <c r="H30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -1760,7 +2234,7 @@
       <c r="H31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="21"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1787,7 +2261,7 @@
       <c r="H32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="21"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
@@ -1814,7 +2288,7 @@
       <c r="H33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -1841,7 +2315,7 @@
       <c r="H34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -1868,7 +2342,7 @@
       <c r="H35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -1895,7 +2369,7 @@
       <c r="H36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -1906,7 +2380,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -1933,7 +2407,7 @@
       <c r="H38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -1960,7 +2434,7 @@
       <c r="H39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -1987,7 +2461,7 @@
       <c r="H40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="21"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
@@ -2014,18 +2488,18 @@
       <c r="H41" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="21"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -2052,7 +2526,7 @@
       <c r="H43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -2079,7 +2553,7 @@
       <c r="H44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="21"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
@@ -2106,7 +2580,7 @@
       <c r="H45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I45" s="21"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
@@ -2133,18 +2607,18 @@
       <c r="H46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="21"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="21"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
@@ -2171,7 +2645,7 @@
       <c r="H48" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
@@ -2198,7 +2672,7 @@
       <c r="H49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="21"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
@@ -2225,7 +2699,7 @@
       <c r="H50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="21"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
@@ -2252,18 +2726,18 @@
       <c r="H51" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="21"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="22"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2278,4 +2752,1627 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCEA4B1-0F42-4530-8705-691EA53A091E}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="17" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1491</v>
+      </c>
+      <c r="G2" s="18">
+        <v>51741</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1516</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1491</v>
+      </c>
+      <c r="G3" s="18">
+        <v>51741</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1516</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="18">
+        <v>9</v>
+      </c>
+      <c r="F4" s="18">
+        <v>37</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3371</v>
+      </c>
+      <c r="H4" s="18">
+        <v>18</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>66</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3371</v>
+      </c>
+      <c r="H5" s="18">
+        <v>18</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>6124</v>
+      </c>
+      <c r="H6" s="18">
+        <v>126</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6</v>
+      </c>
+      <c r="G7" s="18">
+        <v>6124</v>
+      </c>
+      <c r="H7" s="18">
+        <v>126</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>181</v>
+      </c>
+      <c r="G8" s="18">
+        <v>10909</v>
+      </c>
+      <c r="H8" s="18">
+        <v>604</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18">
+        <v>190</v>
+      </c>
+      <c r="G9" s="18">
+        <v>10909</v>
+      </c>
+      <c r="H9" s="18">
+        <v>604</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>177</v>
+      </c>
+      <c r="G10" s="18">
+        <v>8575</v>
+      </c>
+      <c r="H10" s="18">
+        <v>46</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>186</v>
+      </c>
+      <c r="G11" s="18">
+        <v>8575</v>
+      </c>
+      <c r="H11" s="18">
+        <v>46</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="18">
+        <v>28</v>
+      </c>
+      <c r="F12" s="18">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1635</v>
+      </c>
+      <c r="H12" s="18">
+        <v>15</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>11</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1635</v>
+      </c>
+      <c r="H13" s="18">
+        <v>15</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="18">
+        <v>19</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1553</v>
+      </c>
+      <c r="H14" s="18">
+        <v>16</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>22</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1553</v>
+      </c>
+      <c r="H15" s="18">
+        <v>16</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="18">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18">
+        <v>6</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2634</v>
+      </c>
+      <c r="H16" s="18">
+        <v>13</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>11</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2634</v>
+      </c>
+      <c r="H17" s="18">
+        <v>13</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+      <c r="F18" s="18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1609</v>
+      </c>
+      <c r="H18" s="18">
+        <v>11</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1609</v>
+      </c>
+      <c r="H19" s="18">
+        <v>11</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="18">
+        <v>9</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18">
+        <v>2279</v>
+      </c>
+      <c r="H20" s="18">
+        <v>4</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2279</v>
+      </c>
+      <c r="H21" s="18">
+        <v>4</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="18">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1172</v>
+      </c>
+      <c r="H22" s="18">
+        <v>12</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>11</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1172</v>
+      </c>
+      <c r="H23" s="18">
+        <v>12</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="18">
+        <v>29</v>
+      </c>
+      <c r="F24" s="18">
+        <v>8</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1782</v>
+      </c>
+      <c r="H24" s="18">
+        <v>15</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>21</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1782</v>
+      </c>
+      <c r="H25" s="18">
+        <v>15</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="18">
+        <v>22</v>
+      </c>
+      <c r="F26" s="18">
+        <v>10</v>
+      </c>
+      <c r="G26" s="18">
+        <v>2863</v>
+      </c>
+      <c r="H26" s="18">
+        <v>17</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>14</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2863</v>
+      </c>
+      <c r="H27" s="18">
+        <v>17</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="18">
+        <v>19</v>
+      </c>
+      <c r="F28" s="18">
+        <v>20</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1838</v>
+      </c>
+      <c r="H28" s="18">
+        <v>25</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>24</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1838</v>
+      </c>
+      <c r="H29" s="18">
+        <v>25</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="18">
+        <v>19</v>
+      </c>
+      <c r="F30" s="18">
+        <v>11</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2508</v>
+      </c>
+      <c r="H30" s="18">
+        <v>14</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>14</v>
+      </c>
+      <c r="G31" s="18">
+        <v>2508</v>
+      </c>
+      <c r="H31" s="18">
+        <v>14</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="18">
+        <v>27</v>
+      </c>
+      <c r="F32" s="18">
+        <v>4</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1401</v>
+      </c>
+      <c r="H32" s="18">
+        <v>15</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>12</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1401</v>
+      </c>
+      <c r="H33" s="18">
+        <v>15</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="18">
+        <v>13</v>
+      </c>
+      <c r="F34" s="18">
+        <v>13</v>
+      </c>
+      <c r="G34" s="18">
+        <v>2781</v>
+      </c>
+      <c r="H34" s="18">
+        <v>19</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>26</v>
+      </c>
+      <c r="G35" s="18">
+        <v>2781</v>
+      </c>
+      <c r="H35" s="18">
+        <v>19</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="18">
+        <v>10</v>
+      </c>
+      <c r="F36" s="18">
+        <v>16</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1756</v>
+      </c>
+      <c r="H36" s="18">
+        <v>20</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>29</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1756</v>
+      </c>
+      <c r="H37" s="18">
+        <v>20</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="18">
+        <v>10</v>
+      </c>
+      <c r="F38" s="18">
+        <v>11</v>
+      </c>
+      <c r="G38" s="18">
+        <v>2426</v>
+      </c>
+      <c r="H38" s="18">
+        <v>9</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <v>19</v>
+      </c>
+      <c r="G39" s="18">
+        <v>2426</v>
+      </c>
+      <c r="H39" s="18">
+        <v>9</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="18">
+        <v>18</v>
+      </c>
+      <c r="F40" s="18">
+        <v>7</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1319</v>
+      </c>
+      <c r="H40" s="18">
+        <v>7</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>16</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1319</v>
+      </c>
+      <c r="H41" s="18">
+        <v>7</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="18">
+        <v>3</v>
+      </c>
+      <c r="F42" s="18">
+        <v>21</v>
+      </c>
+      <c r="G42" s="18">
+        <v>2837</v>
+      </c>
+      <c r="H42" s="18">
+        <v>23</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>21</v>
+      </c>
+      <c r="G43" s="18">
+        <v>2837</v>
+      </c>
+      <c r="H43" s="18">
+        <v>23</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="18">
+        <v>3</v>
+      </c>
+      <c r="F44" s="18">
+        <v>19</v>
+      </c>
+      <c r="G44" s="18">
+        <v>3507</v>
+      </c>
+      <c r="H44" s="18">
+        <v>19</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>19</v>
+      </c>
+      <c r="G45" s="18">
+        <v>3507</v>
+      </c>
+      <c r="H45" s="18">
+        <v>19</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="18">
+        <v>11</v>
+      </c>
+      <c r="F46" s="18">
+        <v>8</v>
+      </c>
+      <c r="G46" s="18">
+        <v>2400</v>
+      </c>
+      <c r="H46" s="18">
+        <v>15</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <v>11</v>
+      </c>
+      <c r="G47" s="18">
+        <v>2400</v>
+      </c>
+      <c r="H47" s="18">
+        <v>15</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
+        <v>10</v>
+      </c>
+      <c r="G48" s="18">
+        <v>2482</v>
+      </c>
+      <c r="H48" s="18">
+        <v>10</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <v>10</v>
+      </c>
+      <c r="G49" s="18">
+        <v>2482</v>
+      </c>
+      <c r="H49" s="18">
+        <v>10</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="18">
+        <v>8</v>
+      </c>
+      <c r="F50" s="18">
+        <v>9</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1375</v>
+      </c>
+      <c r="H50" s="18">
+        <v>11</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>11</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1375</v>
+      </c>
+      <c r="H51" s="18">
+        <v>11</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="18">
+        <v>8</v>
+      </c>
+      <c r="F52" s="18">
+        <v>12</v>
+      </c>
+      <c r="G52" s="18">
+        <v>2045</v>
+      </c>
+      <c r="H52" s="18">
+        <v>15</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="18">
+        <v>0</v>
+      </c>
+      <c r="F53" s="18">
+        <v>15</v>
+      </c>
+      <c r="G53" s="18">
+        <v>2045</v>
+      </c>
+      <c r="H53" s="18">
+        <v>15</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="18">
+        <v>6</v>
+      </c>
+      <c r="F54" s="18">
+        <v>97</v>
+      </c>
+      <c r="G54" s="18">
+        <v>8264</v>
+      </c>
+      <c r="H54" s="18">
+        <v>18</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>107</v>
+      </c>
+      <c r="G55" s="18">
+        <v>8264</v>
+      </c>
+      <c r="H55" s="18">
+        <v>18</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diagrams/TableNodeKind.xlsx
+++ b/diagrams/TableNodeKind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salgo\Developer\tesis\shacl_integration\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BFB29-B748-45DA-A853-50DF9F2891EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483AFB25-4480-4F5B-A958-C5860E3D8A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" activeTab="1" xr2:uid="{B07788D2-E141-4477-B793-2407B8167394}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{B07788D2-E141-4477-B793-2407B8167394}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
   <si>
     <t>IRI</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>OPERATION TYPE</t>
+  </si>
+  <si>
+    <t>IRIOrLiteral, BlankNodeOrIRI</t>
   </si>
 </sst>
 </file>
@@ -1411,11 +1414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7C6B-FC15-41EF-81DC-0E014A9BDF86}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,7 +2742,786 @@
       <c r="H52" s="34"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A17:H17"/>
@@ -2756,11 +3538,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCEA4B1-0F42-4530-8705-691EA53A091E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4373,6 +5158,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagrams/TableNodeKind.xlsx
+++ b/diagrams/TableNodeKind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salgo\Developer\tesis\shacl_integration\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B51EEC-5E61-45DA-BD0C-5FE3D2DDC0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D58F48-DD4F-478E-9B94-0DA2D10A3C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="27708" windowHeight="16656" activeTab="2" xr2:uid="{B07788D2-E141-4477-B793-2407B8167394}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20280" windowHeight="16656" activeTab="2" xr2:uid="{B07788D2-E141-4477-B793-2407B8167394}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6233,7 +6233,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6343,6 +6343,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6398,37 +6401,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6813,7 +6807,7 @@
       <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6841,7 +6835,7 @@
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -6868,7 +6862,7 @@
       <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -6895,7 +6889,7 @@
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -6922,7 +6916,7 @@
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -6949,7 +6943,7 @@
       <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -6976,7 +6970,7 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -7003,7 +6997,7 @@
       <c r="H8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -7030,7 +7024,7 @@
       <c r="H9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -7057,7 +7051,7 @@
       <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -7084,7 +7078,7 @@
       <c r="H11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="38"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -7111,7 +7105,7 @@
       <c r="H12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="38"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -7138,7 +7132,7 @@
       <c r="H13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -7165,7 +7159,7 @@
       <c r="H14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -7192,7 +7186,7 @@
       <c r="H15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -7219,18 +7213,18 @@
       <c r="H16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="38"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -7257,7 +7251,7 @@
       <c r="H18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -7284,7 +7278,7 @@
       <c r="H19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -7311,7 +7305,7 @@
       <c r="H20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -7338,7 +7332,7 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="38"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -7365,7 +7359,7 @@
       <c r="H22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="38"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -7392,7 +7386,7 @@
       <c r="H23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="38"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -7419,7 +7413,7 @@
       <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="38"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -7446,7 +7440,7 @@
       <c r="H25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="38"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -7473,7 +7467,7 @@
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="38"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -7500,7 +7494,7 @@
       <c r="H27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="38"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -7527,18 +7521,18 @@
       <c r="H28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="38"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="38"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -7565,7 +7559,7 @@
       <c r="H30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="38"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -7592,7 +7586,7 @@
       <c r="H31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="38"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -7619,7 +7613,7 @@
       <c r="H32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="38"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
@@ -7646,7 +7640,7 @@
       <c r="H33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="38"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -7673,7 +7667,7 @@
       <c r="H34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="38"/>
+      <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -7700,7 +7694,7 @@
       <c r="H35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="38"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -7727,7 +7721,7 @@
       <c r="H36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="38"/>
+      <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -7738,7 +7732,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="38"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -7765,7 +7759,7 @@
       <c r="H38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="38"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -7792,7 +7786,7 @@
       <c r="H39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -7819,7 +7813,7 @@
       <c r="H40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
@@ -7846,18 +7840,18 @@
       <c r="H41" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="38"/>
+      <c r="I41" s="39"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="38"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="39"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -7884,7 +7878,7 @@
       <c r="H43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="38"/>
+      <c r="I43" s="39"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -7911,7 +7905,7 @@
       <c r="H44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="38"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
@@ -7938,7 +7932,7 @@
       <c r="H45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I45" s="38"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
@@ -7965,18 +7959,18 @@
       <c r="H46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="38"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="38"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="39"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
@@ -8003,7 +7997,7 @@
       <c r="H48" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="38"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
@@ -8030,7 +8024,7 @@
       <c r="H49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="38"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
@@ -8057,7 +8051,7 @@
       <c r="H50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="38"/>
+      <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
@@ -8084,18 +8078,18 @@
       <c r="H51" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="38"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="38"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
@@ -8122,7 +8116,7 @@
       <c r="H53" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I53" s="38"/>
+      <c r="I53" s="39"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
@@ -8149,7 +8143,7 @@
       <c r="H54" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I54" s="38"/>
+      <c r="I54" s="39"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
@@ -8176,7 +8170,7 @@
       <c r="H55" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I55" s="38"/>
+      <c r="I55" s="39"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
@@ -8203,7 +8197,7 @@
       <c r="H56" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I56" s="38"/>
+      <c r="I56" s="39"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -8230,7 +8224,7 @@
       <c r="H57" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I57" s="38"/>
+      <c r="I57" s="39"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -8257,7 +8251,7 @@
       <c r="H58" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I58" s="38"/>
+      <c r="I58" s="39"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -8284,7 +8278,7 @@
       <c r="H59" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I59" s="38"/>
+      <c r="I59" s="39"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -8311,7 +8305,7 @@
       <c r="H60" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I60" s="38"/>
+      <c r="I60" s="39"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
@@ -8338,7 +8332,7 @@
       <c r="H61" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I61" s="38"/>
+      <c r="I61" s="39"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
@@ -8365,7 +8359,7 @@
       <c r="H62" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I62" s="38"/>
+      <c r="I62" s="39"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
@@ -8392,7 +8386,7 @@
       <c r="H63" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I63" s="38"/>
+      <c r="I63" s="39"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
@@ -8419,7 +8413,7 @@
       <c r="H64" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I64" s="38"/>
+      <c r="I64" s="39"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
@@ -8446,7 +8440,7 @@
       <c r="H65" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I65" s="38"/>
+      <c r="I65" s="39"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
@@ -8473,7 +8467,7 @@
       <c r="H66" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I66" s="38"/>
+      <c r="I66" s="39"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
@@ -8500,7 +8494,7 @@
       <c r="H67" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I67" s="38"/>
+      <c r="I67" s="39"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
@@ -8527,7 +8521,7 @@
       <c r="H68" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I68" s="38"/>
+      <c r="I68" s="39"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
@@ -8554,7 +8548,7 @@
       <c r="H69" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I69" s="38"/>
+      <c r="I69" s="39"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
@@ -8581,7 +8575,7 @@
       <c r="H70" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I70" s="38"/>
+      <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
@@ -8608,7 +8602,7 @@
       <c r="H71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I71" s="38"/>
+      <c r="I71" s="39"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
@@ -8635,7 +8629,7 @@
       <c r="H72" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I72" s="38"/>
+      <c r="I72" s="39"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
@@ -8662,7 +8656,7 @@
       <c r="H73" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I73" s="38"/>
+      <c r="I73" s="39"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
@@ -8689,7 +8683,7 @@
       <c r="H74" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I74" s="38"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
@@ -8716,7 +8710,7 @@
       <c r="H75" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I75" s="38"/>
+      <c r="I75" s="39"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
@@ -8743,7 +8737,7 @@
       <c r="H76" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I76" s="38"/>
+      <c r="I76" s="39"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
@@ -8770,7 +8764,7 @@
       <c r="H77" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I77" s="38"/>
+      <c r="I77" s="39"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
@@ -8797,7 +8791,7 @@
       <c r="H78" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I78" s="38"/>
+      <c r="I78" s="39"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
@@ -8824,7 +8818,7 @@
       <c r="H79" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I79" s="38"/>
+      <c r="I79" s="39"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -8851,7 +8845,7 @@
       <c r="H80" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I80" s="38"/>
+      <c r="I80" s="39"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
@@ -8878,7 +8872,7 @@
       <c r="H81" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I81" s="38"/>
+      <c r="I81" s="39"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
@@ -8905,18 +8899,18 @@
       <c r="H82" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I82" s="38"/>
+      <c r="I82" s="39"/>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="40"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="39"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="40"/>
     </row>
     <row r="84" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -8941,9 +8935,9 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10565,29 +10559,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E427FF-4C64-419D-83C1-01F315B2E139}">
   <dimension ref="A1:K343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M324" sqref="M324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="61" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="17" customWidth="1"/>
     <col min="4" max="4" width="76.6640625" style="20" customWidth="1"/>
     <col min="5" max="5" width="71.21875" style="20" customWidth="1"/>
     <col min="6" max="6" width="43.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="46.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="65" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="65" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="65" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="63" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="63" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="63" customWidth="1"/>
     <col min="12" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="37" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -10608,21 +10602,21 @@
       <c r="G1" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="37" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>161</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -10643,21 +10637,21 @@
       <c r="G2" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="56" t="s">
         <v>981</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>953</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="56" t="s">
         <v>982</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="56" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="21" t="s">
         <v>169</v>
       </c>
@@ -10676,13 +10670,13 @@
       <c r="G3" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="21" t="s">
         <v>171</v>
       </c>
@@ -10701,13 +10695,13 @@
       <c r="G4" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="21" t="s">
         <v>173</v>
       </c>
@@ -10726,13 +10720,13 @@
       <c r="G5" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="409.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="59" t="s">
         <v>181</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -10753,21 +10747,21 @@
       <c r="G6" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="56" t="s">
         <v>983</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="56" t="s">
         <v>980</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="56" t="s">
         <v>984</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="56" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="23" t="s">
         <v>184</v>
       </c>
@@ -10786,13 +10780,13 @@
       <c r="G7" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="23" t="s">
         <v>186</v>
       </c>
@@ -10811,13 +10805,13 @@
       <c r="G8" s="24" t="s">
         <v>948</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="23" t="s">
         <v>188</v>
       </c>
@@ -10836,13 +10830,13 @@
       <c r="G9" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="23" t="s">
         <v>190</v>
       </c>
@@ -10861,13 +10855,13 @@
       <c r="G10" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="23" t="s">
         <v>192</v>
       </c>
@@ -10886,13 +10880,13 @@
       <c r="G11" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="23" t="s">
         <v>194</v>
       </c>
@@ -10911,13 +10905,13 @@
       <c r="G12" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>212</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -10938,21 +10932,21 @@
       <c r="G13" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="56" t="s">
         <v>986</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="56" t="s">
         <v>987</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="56" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="23" t="s">
         <v>188</v>
       </c>
@@ -10971,13 +10965,13 @@
       <c r="G14" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="23" t="s">
         <v>182</v>
       </c>
@@ -10996,13 +10990,13 @@
       <c r="G15" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="21" t="s">
         <v>217</v>
       </c>
@@ -11021,13 +11015,13 @@
       <c r="G16" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="23" t="s">
         <v>219</v>
       </c>
@@ -11046,13 +11040,13 @@
       <c r="G17" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="23" t="s">
         <v>221</v>
       </c>
@@ -11071,13 +11065,13 @@
       <c r="G18" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="21" t="s">
         <v>223</v>
       </c>
@@ -11096,13 +11090,13 @@
       <c r="G19" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="21" t="s">
         <v>225</v>
       </c>
@@ -11121,13 +11115,13 @@
       <c r="G20" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="21" t="s">
         <v>227</v>
       </c>
@@ -11146,13 +11140,13 @@
       <c r="G21" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
     </row>
     <row r="22" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="59" t="s">
         <v>241</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -11173,21 +11167,21 @@
       <c r="G22" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H22" s="55" t="s">
+      <c r="H22" s="56" t="s">
         <v>988</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="56" t="s">
         <v>989</v>
       </c>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="56" t="s">
         <v>990</v>
       </c>
-      <c r="K22" s="55" t="s">
+      <c r="K22" s="56" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="23" t="s">
         <v>244</v>
       </c>
@@ -11206,13 +11200,13 @@
       <c r="G23" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="62"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="23" t="s">
         <v>246</v>
       </c>
@@ -11231,13 +11225,13 @@
       <c r="G24" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="62"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="21" t="s">
         <v>247</v>
       </c>
@@ -11256,13 +11250,13 @@
       <c r="G25" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
     </row>
     <row r="26" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="62"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="23" t="s">
         <v>248</v>
       </c>
@@ -11281,13 +11275,13 @@
       <c r="G26" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
     </row>
     <row r="27" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="62"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="23" t="s">
         <v>249</v>
       </c>
@@ -11306,13 +11300,13 @@
       <c r="G27" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="62"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="21" t="s">
         <v>251</v>
       </c>
@@ -11331,13 +11325,13 @@
       <c r="G28" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="21" t="s">
         <v>252</v>
       </c>
@@ -11356,13 +11350,13 @@
       <c r="G29" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="21" t="s">
         <v>253</v>
       </c>
@@ -11381,13 +11375,13 @@
       <c r="G30" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="29" t="s">
         <v>254</v>
       </c>
@@ -11406,13 +11400,13 @@
       <c r="G31" s="32" t="s">
         <v>922</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="58" t="s">
         <v>274</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -11433,21 +11427,21 @@
       <c r="G32" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="56" t="s">
         <v>979</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="56" t="s">
         <v>980</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="56" t="s">
         <v>978</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="56" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="21" t="s">
         <v>247</v>
       </c>
@@ -11466,13 +11460,13 @@
       <c r="G33" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
     </row>
     <row r="34" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="61"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="21" t="s">
         <v>276</v>
       </c>
@@ -11491,13 +11485,13 @@
       <c r="G34" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
     </row>
     <row r="35" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="61"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="21" t="s">
         <v>251</v>
       </c>
@@ -11516,13 +11510,13 @@
       <c r="G35" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
     </row>
     <row r="36" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="21" t="s">
         <v>278</v>
       </c>
@@ -11541,13 +11535,13 @@
       <c r="G36" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="21" t="s">
         <v>280</v>
       </c>
@@ -11566,13 +11560,13 @@
       <c r="G37" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
     <row r="38" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="61"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>282</v>
       </c>
@@ -11591,13 +11585,13 @@
       <c r="G38" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
     </row>
     <row r="39" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="21" t="s">
         <v>284</v>
       </c>
@@ -11616,13 +11610,13 @@
       <c r="G39" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
     </row>
     <row r="40" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>248</v>
       </c>
@@ -11641,13 +11635,13 @@
       <c r="G40" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="41" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="61"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="21" t="s">
         <v>244</v>
       </c>
@@ -11666,13 +11660,13 @@
       <c r="G41" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="61"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="21" t="s">
         <v>242</v>
       </c>
@@ -11691,13 +11685,13 @@
       <c r="G42" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
     </row>
     <row r="43" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="59" t="s">
         <v>299</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -11718,21 +11712,21 @@
       <c r="G43" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H43" s="58" t="s">
+      <c r="H43" s="56" t="s">
         <v>976</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="56" t="s">
         <v>977</v>
       </c>
-      <c r="J43" s="58" t="s">
+      <c r="J43" s="56" t="s">
         <v>978</v>
       </c>
-      <c r="K43" s="58" t="s">
+      <c r="K43" s="56" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="62"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="21" t="s">
         <v>301</v>
       </c>
@@ -11751,13 +11745,13 @@
       <c r="G44" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
     </row>
     <row r="45" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="62"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="21" t="s">
         <v>166</v>
       </c>
@@ -11776,13 +11770,13 @@
       <c r="G45" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
     </row>
     <row r="46" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="62"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="21" t="s">
         <v>303</v>
       </c>
@@ -11801,13 +11795,13 @@
       <c r="G46" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
     </row>
     <row r="47" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="62"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="21" t="s">
         <v>305</v>
       </c>
@@ -11826,13 +11820,13 @@
       <c r="G47" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
     </row>
     <row r="48" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="62"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="21" t="s">
         <v>171</v>
       </c>
@@ -11851,13 +11845,13 @@
       <c r="G48" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
     </row>
     <row r="49" spans="1:11" ht="404.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="62"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="21" t="s">
         <v>307</v>
       </c>
@@ -11876,13 +11870,13 @@
       <c r="G49" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
     </row>
     <row r="50" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="62"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="21" t="s">
         <v>308</v>
       </c>
@@ -11901,13 +11895,13 @@
       <c r="G50" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
     </row>
     <row r="51" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="62"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="21" t="s">
         <v>169</v>
       </c>
@@ -11926,13 +11920,13 @@
       <c r="G51" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
     </row>
     <row r="52" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="62"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="21" t="s">
         <v>310</v>
       </c>
@@ -11951,13 +11945,13 @@
       <c r="G52" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
     </row>
     <row r="53" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="62"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="21" t="s">
         <v>311</v>
       </c>
@@ -11976,13 +11970,13 @@
       <c r="G53" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:11" ht="404.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="58" t="s">
         <v>326</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -12003,21 +11997,21 @@
       <c r="G54" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="56" t="s">
         <v>973</v>
       </c>
-      <c r="I54" s="58" t="s">
+      <c r="I54" s="56" t="s">
         <v>974</v>
       </c>
-      <c r="J54" s="58" t="s">
+      <c r="J54" s="56" t="s">
         <v>975</v>
       </c>
-      <c r="K54" s="58" t="s">
+      <c r="K54" s="56" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="21" t="s">
         <v>310</v>
       </c>
@@ -12036,13 +12030,13 @@
       <c r="G55" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
     </row>
     <row r="56" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="21" t="s">
         <v>327</v>
       </c>
@@ -12061,13 +12055,13 @@
       <c r="G56" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
     </row>
     <row r="57" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="61"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="21" t="s">
         <v>300</v>
       </c>
@@ -12086,13 +12080,13 @@
       <c r="G57" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="61"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="21" t="s">
         <v>328</v>
       </c>
@@ -12111,13 +12105,13 @@
       <c r="G58" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
     </row>
     <row r="59" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="61"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="21" t="s">
         <v>330</v>
       </c>
@@ -12136,13 +12130,13 @@
       <c r="G59" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
     </row>
     <row r="60" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="61"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="21" t="s">
         <v>169</v>
       </c>
@@ -12161,13 +12155,13 @@
       <c r="G60" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
     </row>
     <row r="61" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="61"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="21" t="s">
         <v>331</v>
       </c>
@@ -12186,13 +12180,13 @@
       <c r="G61" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
     </row>
     <row r="62" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="21" t="s">
         <v>333</v>
       </c>
@@ -12211,13 +12205,13 @@
       <c r="G62" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
     </row>
     <row r="63" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="61"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="21" t="s">
         <v>166</v>
       </c>
@@ -12236,13 +12230,13 @@
       <c r="G63" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
     </row>
     <row r="64" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="61"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="21" t="s">
         <v>334</v>
       </c>
@@ -12261,13 +12255,13 @@
       <c r="G64" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
     </row>
     <row r="65" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="61"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="21" t="s">
         <v>171</v>
       </c>
@@ -12286,13 +12280,13 @@
       <c r="G65" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
     </row>
     <row r="66" spans="1:11" ht="390" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="59" t="s">
         <v>345</v>
       </c>
       <c r="B66" s="21" t="s">
@@ -12313,21 +12307,21 @@
       <c r="G66" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H66" s="58" t="s">
+      <c r="H66" s="56" t="s">
         <v>970</v>
       </c>
-      <c r="I66" s="58" t="s">
+      <c r="I66" s="56" t="s">
         <v>971</v>
       </c>
-      <c r="J66" s="58" t="s">
+      <c r="J66" s="56" t="s">
         <v>972</v>
       </c>
-      <c r="K66" s="58" t="s">
+      <c r="K66" s="56" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="62"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="21" t="s">
         <v>307</v>
       </c>
@@ -12346,13 +12340,13 @@
       <c r="G67" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
     </row>
     <row r="68" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="62"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="21" t="s">
         <v>166</v>
       </c>
@@ -12371,13 +12365,13 @@
       <c r="G68" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
     </row>
     <row r="69" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="62"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="21" t="s">
         <v>173</v>
       </c>
@@ -12396,13 +12390,13 @@
       <c r="G69" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
     </row>
     <row r="70" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="62"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="21" t="s">
         <v>350</v>
       </c>
@@ -12421,13 +12415,13 @@
       <c r="G70" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
     </row>
     <row r="71" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="62"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="21" t="s">
         <v>352</v>
       </c>
@@ -12446,13 +12440,13 @@
       <c r="G71" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
     </row>
     <row r="72" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="62"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="21" t="s">
         <v>328</v>
       </c>
@@ -12471,13 +12465,13 @@
       <c r="G72" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
     </row>
     <row r="73" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="62"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="21" t="s">
         <v>169</v>
       </c>
@@ -12496,13 +12490,13 @@
       <c r="G73" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
     </row>
     <row r="74" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="62"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="21" t="s">
         <v>300</v>
       </c>
@@ -12521,13 +12515,13 @@
       <c r="G74" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
     </row>
     <row r="75" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="62"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="21" t="s">
         <v>310</v>
       </c>
@@ -12546,13 +12540,13 @@
       <c r="G75" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
     </row>
     <row r="76" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="62"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="21" t="s">
         <v>358</v>
       </c>
@@ -12571,13 +12565,13 @@
       <c r="G76" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
     </row>
     <row r="77" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="62"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="21" t="s">
         <v>305</v>
       </c>
@@ -12596,13 +12590,13 @@
       <c r="G77" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
     </row>
     <row r="78" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="62"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="21" t="s">
         <v>308</v>
       </c>
@@ -12621,13 +12615,13 @@
       <c r="G78" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
     </row>
     <row r="79" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="58" t="s">
         <v>379</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -12648,21 +12642,21 @@
       <c r="G79" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H79" s="58" t="s">
+      <c r="H79" s="56" t="s">
         <v>967</v>
       </c>
-      <c r="I79" s="58" t="s">
+      <c r="I79" s="56" t="s">
         <v>968</v>
       </c>
-      <c r="J79" s="58" t="s">
+      <c r="J79" s="56" t="s">
         <v>969</v>
       </c>
-      <c r="K79" s="58" t="s">
+      <c r="K79" s="56" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="21" t="s">
         <v>381</v>
       </c>
@@ -12681,13 +12675,13 @@
       <c r="G80" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
     </row>
     <row r="81" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="61"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="21" t="s">
         <v>383</v>
       </c>
@@ -12706,13 +12700,13 @@
       <c r="G81" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
     </row>
     <row r="82" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="61"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="21" t="s">
         <v>384</v>
       </c>
@@ -12731,13 +12725,13 @@
       <c r="G82" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
     </row>
     <row r="83" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="61"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="21" t="s">
         <v>385</v>
       </c>
@@ -12756,13 +12750,13 @@
       <c r="G83" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
     </row>
     <row r="84" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="61"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="21" t="s">
         <v>386</v>
       </c>
@@ -12781,13 +12775,13 @@
       <c r="G84" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
     </row>
     <row r="85" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="61"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="21" t="s">
         <v>388</v>
       </c>
@@ -12806,13 +12800,13 @@
       <c r="G85" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
     </row>
     <row r="86" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="61"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="21" t="s">
         <v>389</v>
       </c>
@@ -12831,13 +12825,13 @@
       <c r="G86" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
     </row>
     <row r="87" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="61"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="21" t="s">
         <v>391</v>
       </c>
@@ -12856,13 +12850,13 @@
       <c r="G87" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
     </row>
     <row r="88" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="61"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="21" t="s">
         <v>392</v>
       </c>
@@ -12881,13 +12875,13 @@
       <c r="G88" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
     </row>
     <row r="89" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="61"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="21" t="s">
         <v>393</v>
       </c>
@@ -12906,13 +12900,13 @@
       <c r="G89" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
     </row>
     <row r="90" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="61"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="21" t="s">
         <v>395</v>
       </c>
@@ -12931,13 +12925,13 @@
       <c r="G90" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
     </row>
     <row r="91" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="21" t="s">
         <v>397</v>
       </c>
@@ -12956,13 +12950,13 @@
       <c r="G91" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
     </row>
     <row r="92" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="61"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="21" t="s">
         <v>399</v>
       </c>
@@ -12981,13 +12975,13 @@
       <c r="G92" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="57"/>
     </row>
     <row r="93" spans="1:11" ht="404.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="62" t="s">
+      <c r="A93" s="59" t="s">
         <v>425</v>
       </c>
       <c r="B93" s="21" t="s">
@@ -13008,21 +13002,21 @@
       <c r="G93" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H93" s="58" t="s">
+      <c r="H93" s="56" t="s">
         <v>965</v>
       </c>
-      <c r="I93" s="58" t="s">
+      <c r="I93" s="56" t="s">
         <v>966</v>
       </c>
-      <c r="J93" s="58" t="s">
+      <c r="J93" s="56" t="s">
         <v>956</v>
       </c>
-      <c r="K93" s="58" t="s">
+      <c r="K93" s="56" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="62"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="21" t="s">
         <v>427</v>
       </c>
@@ -13041,13 +13035,13 @@
       <c r="G94" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
     </row>
     <row r="95" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="62"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="21" t="s">
         <v>166</v>
       </c>
@@ -13066,13 +13060,13 @@
       <c r="G95" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
     </row>
     <row r="96" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="62"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="21" t="s">
         <v>171</v>
       </c>
@@ -13091,13 +13085,13 @@
       <c r="G96" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
     </row>
     <row r="97" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="62"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="21" t="s">
         <v>330</v>
       </c>
@@ -13116,13 +13110,13 @@
       <c r="G97" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="57"/>
     </row>
     <row r="98" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="62"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="21" t="s">
         <v>430</v>
       </c>
@@ -13141,13 +13135,13 @@
       <c r="G98" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="57"/>
     </row>
     <row r="99" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="62"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="21" t="s">
         <v>432</v>
       </c>
@@ -13166,13 +13160,13 @@
       <c r="G99" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
     </row>
     <row r="100" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="62"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="21" t="s">
         <v>300</v>
       </c>
@@ -13191,13 +13185,13 @@
       <c r="G100" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
     </row>
     <row r="101" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="62"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="21" t="s">
         <v>169</v>
       </c>
@@ -13216,13 +13210,13 @@
       <c r="G101" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
     </row>
     <row r="102" spans="1:11" ht="404.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="62"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="21" t="s">
         <v>307</v>
       </c>
@@ -13241,13 +13235,13 @@
       <c r="G102" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="57"/>
     </row>
     <row r="103" spans="1:11" ht="260.39999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="62"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="21" t="s">
         <v>331</v>
       </c>
@@ -13266,13 +13260,13 @@
       <c r="G103" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
     </row>
     <row r="104" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="62"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="21" t="s">
         <v>436</v>
       </c>
@@ -13291,13 +13285,13 @@
       <c r="G104" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
     </row>
     <row r="105" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="62"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="21" t="s">
         <v>438</v>
       </c>
@@ -13316,13 +13310,13 @@
       <c r="G105" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
     </row>
     <row r="106" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="62"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="21" t="s">
         <v>440</v>
       </c>
@@ -13341,13 +13335,13 @@
       <c r="G106" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
     </row>
     <row r="107" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="62"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="21" t="s">
         <v>442</v>
       </c>
@@ -13366,13 +13360,13 @@
       <c r="G107" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
     </row>
     <row r="108" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="61" t="s">
+      <c r="A108" s="58" t="s">
         <v>462</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -13393,21 +13387,21 @@
       <c r="G108" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H108" s="58" t="s">
+      <c r="H108" s="56" t="s">
         <v>962</v>
       </c>
-      <c r="I108" s="58" t="s">
+      <c r="I108" s="56" t="s">
         <v>963</v>
       </c>
-      <c r="J108" s="58" t="s">
+      <c r="J108" s="56" t="s">
         <v>956</v>
       </c>
-      <c r="K108" s="58" t="s">
+      <c r="K108" s="56" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="61"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="21" t="s">
         <v>429</v>
       </c>
@@ -13426,13 +13420,13 @@
       <c r="G109" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="57"/>
     </row>
     <row r="110" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="61"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="21" t="s">
         <v>465</v>
       </c>
@@ -13451,13 +13445,13 @@
       <c r="G110" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H110" s="59"/>
-      <c r="I110" s="59"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="59"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
     </row>
     <row r="111" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="61"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="21" t="s">
         <v>467</v>
       </c>
@@ -13476,13 +13470,13 @@
       <c r="G111" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
     </row>
     <row r="112" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="61"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="21" t="s">
         <v>439</v>
       </c>
@@ -13501,13 +13495,13 @@
       <c r="G112" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="59"/>
-      <c r="K112" s="59"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
+      <c r="K112" s="57"/>
     </row>
     <row r="113" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="61"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="21" t="s">
         <v>470</v>
       </c>
@@ -13526,13 +13520,13 @@
       <c r="G113" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="59"/>
-      <c r="K113" s="59"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
     </row>
     <row r="114" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="61"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="21" t="s">
         <v>472</v>
       </c>
@@ -13551,13 +13545,13 @@
       <c r="G114" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
     </row>
     <row r="115" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="61"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="21" t="s">
         <v>384</v>
       </c>
@@ -13576,13 +13570,13 @@
       <c r="G115" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H115" s="59"/>
-      <c r="I115" s="59"/>
-      <c r="J115" s="59"/>
-      <c r="K115" s="59"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="57"/>
     </row>
     <row r="116" spans="1:11" ht="361.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="61"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="21" t="s">
         <v>473</v>
       </c>
@@ -13601,13 +13595,13 @@
       <c r="G116" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="59"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
     </row>
     <row r="117" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="61"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="21" t="s">
         <v>388</v>
       </c>
@@ -13626,13 +13620,13 @@
       <c r="G117" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="57"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="57"/>
     </row>
     <row r="118" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="61"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="21" t="s">
         <v>426</v>
       </c>
@@ -13651,13 +13645,13 @@
       <c r="G118" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="59"/>
-      <c r="K118" s="59"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="57"/>
     </row>
     <row r="119" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="61"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="21" t="s">
         <v>475</v>
       </c>
@@ -13676,13 +13670,13 @@
       <c r="G119" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H119" s="59"/>
-      <c r="I119" s="59"/>
-      <c r="J119" s="59"/>
-      <c r="K119" s="59"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
     </row>
     <row r="120" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="61"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="21" t="s">
         <v>385</v>
       </c>
@@ -13701,13 +13695,13 @@
       <c r="G120" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H120" s="59"/>
-      <c r="I120" s="59"/>
-      <c r="J120" s="59"/>
-      <c r="K120" s="59"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="57"/>
+      <c r="J120" s="57"/>
+      <c r="K120" s="57"/>
     </row>
     <row r="121" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="61"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="21" t="s">
         <v>477</v>
       </c>
@@ -13726,13 +13720,13 @@
       <c r="G121" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="61"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="21" t="s">
         <v>479</v>
       </c>
@@ -13751,13 +13745,13 @@
       <c r="G122" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H122" s="59"/>
-      <c r="I122" s="59"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="59"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
     </row>
     <row r="123" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="62" t="s">
+      <c r="A123" s="59" t="s">
         <v>499</v>
       </c>
       <c r="B123" s="21" t="s">
@@ -13778,21 +13772,21 @@
       <c r="G123" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H123" s="58" t="s">
+      <c r="H123" s="56" t="s">
         <v>960</v>
       </c>
-      <c r="I123" s="58" t="s">
+      <c r="I123" s="56" t="s">
         <v>961</v>
       </c>
-      <c r="J123" s="58" t="s">
+      <c r="J123" s="56" t="s">
         <v>956</v>
       </c>
-      <c r="K123" s="58" t="s">
+      <c r="K123" s="56" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="62"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="21" t="s">
         <v>500</v>
       </c>
@@ -13811,13 +13805,13 @@
       <c r="G124" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H124" s="59"/>
-      <c r="I124" s="59"/>
-      <c r="J124" s="59"/>
-      <c r="K124" s="59"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
     </row>
     <row r="125" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="62"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="21" t="s">
         <v>385</v>
       </c>
@@ -13836,13 +13830,13 @@
       <c r="G125" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H125" s="59"/>
-      <c r="I125" s="59"/>
-      <c r="J125" s="59"/>
-      <c r="K125" s="59"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="62"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="21" t="s">
         <v>391</v>
       </c>
@@ -13861,13 +13855,13 @@
       <c r="G126" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H126" s="59"/>
-      <c r="I126" s="59"/>
-      <c r="J126" s="59"/>
-      <c r="K126" s="59"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="1:11" ht="246" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="62"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="21" t="s">
         <v>435</v>
       </c>
@@ -13886,13 +13880,13 @@
       <c r="G127" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H127" s="59"/>
-      <c r="I127" s="59"/>
-      <c r="J127" s="59"/>
-      <c r="K127" s="59"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="57"/>
+      <c r="J127" s="57"/>
+      <c r="K127" s="57"/>
     </row>
     <row r="128" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="62"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="21" t="s">
         <v>426</v>
       </c>
@@ -13911,13 +13905,13 @@
       <c r="G128" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H128" s="59"/>
-      <c r="I128" s="59"/>
-      <c r="J128" s="59"/>
-      <c r="K128" s="59"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="57"/>
     </row>
     <row r="129" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="62"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="21" t="s">
         <v>386</v>
       </c>
@@ -13936,13 +13930,13 @@
       <c r="G129" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H129" s="59"/>
-      <c r="I129" s="59"/>
-      <c r="J129" s="59"/>
-      <c r="K129" s="59"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="57"/>
+      <c r="K129" s="57"/>
     </row>
     <row r="130" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="62"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="21" t="s">
         <v>429</v>
       </c>
@@ -13961,13 +13955,13 @@
       <c r="G130" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H130" s="59"/>
-      <c r="I130" s="59"/>
-      <c r="J130" s="59"/>
-      <c r="K130" s="59"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="57"/>
     </row>
     <row r="131" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="62"/>
+      <c r="A131" s="59"/>
       <c r="B131" s="21" t="s">
         <v>472</v>
       </c>
@@ -13986,13 +13980,13 @@
       <c r="G131" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H131" s="59"/>
-      <c r="I131" s="59"/>
-      <c r="J131" s="59"/>
-      <c r="K131" s="59"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
     </row>
     <row r="132" spans="1:11" ht="246" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="62"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="21" t="s">
         <v>502</v>
       </c>
@@ -14011,13 +14005,13 @@
       <c r="G132" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H132" s="59"/>
-      <c r="I132" s="59"/>
-      <c r="J132" s="59"/>
-      <c r="K132" s="59"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="57"/>
+      <c r="K132" s="57"/>
     </row>
     <row r="133" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="62"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="21" t="s">
         <v>384</v>
       </c>
@@ -14036,13 +14030,13 @@
       <c r="G133" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H133" s="59"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="59"/>
-      <c r="K133" s="59"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="57"/>
     </row>
     <row r="134" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="62"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="21" t="s">
         <v>504</v>
       </c>
@@ -14061,13 +14055,13 @@
       <c r="G134" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="59"/>
-      <c r="K134" s="59"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
     </row>
     <row r="135" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="62"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="21" t="s">
         <v>506</v>
       </c>
@@ -14086,13 +14080,13 @@
       <c r="G135" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H135" s="59"/>
-      <c r="I135" s="59"/>
-      <c r="J135" s="59"/>
-      <c r="K135" s="59"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
     </row>
     <row r="136" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="62"/>
+      <c r="A136" s="59"/>
       <c r="B136" s="21" t="s">
         <v>508</v>
       </c>
@@ -14111,13 +14105,13 @@
       <c r="G136" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="H136" s="59"/>
-      <c r="I136" s="59"/>
-      <c r="J136" s="59"/>
-      <c r="K136" s="59"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
     </row>
     <row r="137" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="62"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="21" t="s">
         <v>392</v>
       </c>
@@ -14136,13 +14130,13 @@
       <c r="G137" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H137" s="59"/>
-      <c r="I137" s="59"/>
-      <c r="J137" s="59"/>
-      <c r="K137" s="59"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="57"/>
     </row>
     <row r="138" spans="1:11" ht="303.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="61" t="s">
+      <c r="A138" s="58" t="s">
         <v>521</v>
       </c>
       <c r="B138" s="21" t="s">
@@ -14163,21 +14157,21 @@
       <c r="G138" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H138" s="58" t="s">
+      <c r="H138" s="56" t="s">
         <v>957</v>
       </c>
-      <c r="I138" s="58" t="s">
+      <c r="I138" s="56" t="s">
         <v>958</v>
       </c>
-      <c r="J138" s="58" t="s">
+      <c r="J138" s="56" t="s">
         <v>956</v>
       </c>
-      <c r="K138" s="58" t="s">
+      <c r="K138" s="56" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="61"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="21" t="s">
         <v>523</v>
       </c>
@@ -14196,13 +14190,13 @@
       <c r="G139" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H139" s="59"/>
-      <c r="I139" s="59"/>
-      <c r="J139" s="59"/>
-      <c r="K139" s="59"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="57"/>
     </row>
     <row r="140" spans="1:11" ht="375.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="61"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="21" t="s">
         <v>346</v>
       </c>
@@ -14221,13 +14215,13 @@
       <c r="G140" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H140" s="59"/>
-      <c r="I140" s="59"/>
-      <c r="J140" s="59"/>
-      <c r="K140" s="59"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="57"/>
     </row>
     <row r="141" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="61"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="21" t="s">
         <v>525</v>
       </c>
@@ -14246,13 +14240,13 @@
       <c r="G141" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H141" s="59"/>
-      <c r="I141" s="59"/>
-      <c r="J141" s="59"/>
-      <c r="K141" s="59"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
     </row>
     <row r="142" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="61"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="21" t="s">
         <v>527</v>
       </c>
@@ -14271,13 +14265,13 @@
       <c r="G142" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H142" s="59"/>
-      <c r="I142" s="59"/>
-      <c r="J142" s="59"/>
-      <c r="K142" s="59"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="57"/>
     </row>
     <row r="143" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="61"/>
+      <c r="A143" s="58"/>
       <c r="B143" s="21" t="s">
         <v>348</v>
       </c>
@@ -14296,13 +14290,13 @@
       <c r="G143" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H143" s="59"/>
-      <c r="I143" s="59"/>
-      <c r="J143" s="59"/>
-      <c r="K143" s="59"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="57"/>
     </row>
     <row r="144" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="61"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="21" t="s">
         <v>529</v>
       </c>
@@ -14321,13 +14315,13 @@
       <c r="G144" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H144" s="59"/>
-      <c r="I144" s="59"/>
-      <c r="J144" s="59"/>
-      <c r="K144" s="59"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="57"/>
     </row>
     <row r="145" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="61"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="21" t="s">
         <v>531</v>
       </c>
@@ -14346,13 +14340,13 @@
       <c r="G145" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="H145" s="59"/>
-      <c r="I145" s="59"/>
-      <c r="J145" s="59"/>
-      <c r="K145" s="59"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="57"/>
+      <c r="K145" s="57"/>
     </row>
     <row r="146" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="61"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="21" t="s">
         <v>354</v>
       </c>
@@ -14371,13 +14365,13 @@
       <c r="G146" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H146" s="59"/>
-      <c r="I146" s="59"/>
-      <c r="J146" s="59"/>
-      <c r="K146" s="59"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="57"/>
     </row>
     <row r="147" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="61"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="21" t="s">
         <v>347</v>
       </c>
@@ -14396,13 +14390,13 @@
       <c r="G147" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H147" s="59"/>
-      <c r="I147" s="59"/>
-      <c r="J147" s="59"/>
-      <c r="K147" s="59"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
     </row>
     <row r="148" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="61"/>
+      <c r="A148" s="58"/>
       <c r="B148" s="21" t="s">
         <v>533</v>
       </c>
@@ -14421,13 +14415,13 @@
       <c r="G148" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="H148" s="59"/>
-      <c r="I148" s="59"/>
-      <c r="J148" s="59"/>
-      <c r="K148" s="59"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="57"/>
     </row>
     <row r="149" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="61"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="21" t="s">
         <v>355</v>
       </c>
@@ -14446,13 +14440,13 @@
       <c r="G149" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H149" s="59"/>
-      <c r="I149" s="59"/>
-      <c r="J149" s="59"/>
-      <c r="K149" s="59"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="57"/>
     </row>
     <row r="150" spans="1:11" ht="274.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="61"/>
+      <c r="A150" s="58"/>
       <c r="B150" s="21" t="s">
         <v>356</v>
       </c>
@@ -14471,13 +14465,13 @@
       <c r="G150" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="59"/>
-      <c r="K150" s="59"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="57"/>
+      <c r="K150" s="57"/>
     </row>
     <row r="151" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="61"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="21" t="s">
         <v>357</v>
       </c>
@@ -14496,13 +14490,13 @@
       <c r="G151" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H151" s="59"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="59"/>
-      <c r="K151" s="59"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="57"/>
     </row>
     <row r="152" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="61"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="21" t="s">
         <v>535</v>
       </c>
@@ -14521,13 +14515,13 @@
       <c r="G152" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H152" s="59"/>
-      <c r="I152" s="59"/>
-      <c r="J152" s="59"/>
-      <c r="K152" s="59"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="57"/>
     </row>
     <row r="153" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="62" t="s">
+      <c r="A153" s="59" t="s">
         <v>552</v>
       </c>
       <c r="B153" s="21" t="s">
@@ -14548,21 +14542,21 @@
       <c r="G153" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H153" s="58" t="s">
+      <c r="H153" s="56" t="s">
         <v>954</v>
       </c>
-      <c r="I153" s="58" t="s">
+      <c r="I153" s="56" t="s">
         <v>955</v>
       </c>
-      <c r="J153" s="58" t="s">
+      <c r="J153" s="56" t="s">
         <v>956</v>
       </c>
-      <c r="K153" s="58" t="s">
+      <c r="K153" s="56" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="62"/>
+      <c r="A154" s="59"/>
       <c r="B154" s="21" t="s">
         <v>170</v>
       </c>
@@ -14581,13 +14575,13 @@
       <c r="G154" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H154" s="59"/>
-      <c r="I154" s="59"/>
-      <c r="J154" s="59"/>
-      <c r="K154" s="59"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="57"/>
     </row>
     <row r="155" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="62"/>
+      <c r="A155" s="59"/>
       <c r="B155" s="21" t="s">
         <v>553</v>
       </c>
@@ -14606,13 +14600,13 @@
       <c r="G155" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H155" s="59"/>
-      <c r="I155" s="59"/>
-      <c r="J155" s="59"/>
-      <c r="K155" s="59"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="57"/>
     </row>
     <row r="156" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="62"/>
+      <c r="A156" s="59"/>
       <c r="B156" s="21" t="s">
         <v>387</v>
       </c>
@@ -14631,13 +14625,13 @@
       <c r="G156" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H156" s="59"/>
-      <c r="I156" s="59"/>
-      <c r="J156" s="59"/>
-      <c r="K156" s="59"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
     </row>
     <row r="157" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="62"/>
+      <c r="A157" s="59"/>
       <c r="B157" s="21" t="s">
         <v>555</v>
       </c>
@@ -14656,13 +14650,13 @@
       <c r="G157" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H157" s="59"/>
-      <c r="I157" s="59"/>
-      <c r="J157" s="59"/>
-      <c r="K157" s="59"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
+      <c r="K157" s="57"/>
     </row>
     <row r="158" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="62"/>
+      <c r="A158" s="59"/>
       <c r="B158" s="21" t="s">
         <v>557</v>
       </c>
@@ -14681,13 +14675,13 @@
       <c r="G158" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H158" s="59"/>
-      <c r="I158" s="59"/>
-      <c r="J158" s="59"/>
-      <c r="K158" s="59"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="57"/>
     </row>
     <row r="159" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="62"/>
+      <c r="A159" s="59"/>
       <c r="B159" s="21" t="s">
         <v>559</v>
       </c>
@@ -14706,13 +14700,13 @@
       <c r="G159" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H159" s="59"/>
-      <c r="I159" s="59"/>
-      <c r="J159" s="59"/>
-      <c r="K159" s="59"/>
+      <c r="H159" s="57"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="57"/>
+      <c r="K159" s="57"/>
     </row>
     <row r="160" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="62"/>
+      <c r="A160" s="59"/>
       <c r="B160" s="21" t="s">
         <v>561</v>
       </c>
@@ -14731,13 +14725,13 @@
       <c r="G160" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H160" s="59"/>
-      <c r="I160" s="59"/>
-      <c r="J160" s="59"/>
-      <c r="K160" s="59"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="57"/>
+      <c r="K160" s="57"/>
     </row>
     <row r="161" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="62"/>
+      <c r="A161" s="59"/>
       <c r="B161" s="21" t="s">
         <v>167</v>
       </c>
@@ -14756,13 +14750,13 @@
       <c r="G161" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H161" s="59"/>
-      <c r="I161" s="59"/>
-      <c r="J161" s="59"/>
-      <c r="K161" s="59"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
     </row>
     <row r="162" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="62"/>
+      <c r="A162" s="59"/>
       <c r="B162" s="21" t="s">
         <v>380</v>
       </c>
@@ -14781,13 +14775,13 @@
       <c r="G162" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H162" s="59"/>
-      <c r="I162" s="59"/>
-      <c r="J162" s="59"/>
-      <c r="K162" s="59"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="57"/>
     </row>
     <row r="163" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="62"/>
+      <c r="A163" s="59"/>
       <c r="B163" s="21" t="s">
         <v>563</v>
       </c>
@@ -14806,13 +14800,13 @@
       <c r="G163" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H163" s="59"/>
-      <c r="I163" s="59"/>
-      <c r="J163" s="59"/>
-      <c r="K163" s="59"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="57"/>
     </row>
     <row r="164" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="62"/>
+      <c r="A164" s="59"/>
       <c r="B164" s="21" t="s">
         <v>565</v>
       </c>
@@ -14831,13 +14825,13 @@
       <c r="G164" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H164" s="59"/>
-      <c r="I164" s="59"/>
-      <c r="J164" s="59"/>
-      <c r="K164" s="59"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="57"/>
+      <c r="K164" s="57"/>
     </row>
     <row r="165" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="62"/>
+      <c r="A165" s="59"/>
       <c r="B165" s="21" t="s">
         <v>172</v>
       </c>
@@ -14856,13 +14850,13 @@
       <c r="G165" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
+      <c r="H165" s="57"/>
+      <c r="I165" s="57"/>
+      <c r="J165" s="57"/>
+      <c r="K165" s="57"/>
     </row>
     <row r="166" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="62"/>
+      <c r="A166" s="59"/>
       <c r="B166" s="21" t="s">
         <v>566</v>
       </c>
@@ -14881,13 +14875,13 @@
       <c r="G166" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="59"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="57"/>
     </row>
     <row r="167" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="62"/>
+      <c r="A167" s="59"/>
       <c r="B167" s="21" t="s">
         <v>382</v>
       </c>
@@ -14906,13 +14900,13 @@
       <c r="G167" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="57"/>
+      <c r="J167" s="57"/>
+      <c r="K167" s="57"/>
     </row>
     <row r="168" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="61" t="s">
+      <c r="A168" s="58" t="s">
         <v>585</v>
       </c>
       <c r="B168" s="21" t="s">
@@ -14933,21 +14927,21 @@
       <c r="G168" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H168" s="58" t="s">
+      <c r="H168" s="56" t="s">
         <v>951</v>
       </c>
-      <c r="I168" s="58" t="s">
+      <c r="I168" s="56" t="s">
         <v>952</v>
       </c>
-      <c r="J168" s="58" t="s">
+      <c r="J168" s="56" t="s">
         <v>953</v>
       </c>
-      <c r="K168" s="58" t="s">
+      <c r="K168" s="56" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="61"/>
+      <c r="A169" s="58"/>
       <c r="B169" s="21" t="s">
         <v>586</v>
       </c>
@@ -14966,13 +14960,13 @@
       <c r="G169" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H169" s="59"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="59"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="57"/>
+      <c r="J169" s="57"/>
+      <c r="K169" s="57"/>
     </row>
     <row r="170" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="61"/>
+      <c r="A170" s="58"/>
       <c r="B170" s="21" t="s">
         <v>166</v>
       </c>
@@ -14991,13 +14985,13 @@
       <c r="G170" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="57"/>
+      <c r="J170" s="57"/>
+      <c r="K170" s="57"/>
     </row>
     <row r="171" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="61"/>
+      <c r="A171" s="58"/>
       <c r="B171" s="21" t="s">
         <v>301</v>
       </c>
@@ -15016,13 +15010,13 @@
       <c r="G171" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="57"/>
+      <c r="J171" s="57"/>
+      <c r="K171" s="57"/>
     </row>
     <row r="172" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="61"/>
+      <c r="A172" s="58"/>
       <c r="B172" s="21" t="s">
         <v>589</v>
       </c>
@@ -15041,13 +15035,13 @@
       <c r="G172" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="57"/>
+      <c r="J172" s="57"/>
+      <c r="K172" s="57"/>
     </row>
     <row r="173" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="61"/>
+      <c r="A173" s="58"/>
       <c r="B173" s="21" t="s">
         <v>591</v>
       </c>
@@ -15066,13 +15060,13 @@
       <c r="G173" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
-      <c r="J173" s="59"/>
-      <c r="K173" s="59"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="57"/>
+      <c r="K173" s="57"/>
     </row>
     <row r="174" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="61"/>
+      <c r="A174" s="58"/>
       <c r="B174" s="21" t="s">
         <v>438</v>
       </c>
@@ -15091,13 +15085,13 @@
       <c r="G174" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H174" s="59"/>
-      <c r="I174" s="59"/>
-      <c r="J174" s="59"/>
-      <c r="K174" s="59"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="57"/>
+      <c r="J174" s="57"/>
+      <c r="K174" s="57"/>
     </row>
     <row r="175" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="61"/>
+      <c r="A175" s="58"/>
       <c r="B175" s="21" t="s">
         <v>311</v>
       </c>
@@ -15116,13 +15110,13 @@
       <c r="G175" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H175" s="59"/>
-      <c r="I175" s="59"/>
-      <c r="J175" s="59"/>
-      <c r="K175" s="59"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="57"/>
+      <c r="K175" s="57"/>
     </row>
     <row r="176" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="61"/>
+      <c r="A176" s="58"/>
       <c r="B176" s="21" t="s">
         <v>305</v>
       </c>
@@ -15141,13 +15135,13 @@
       <c r="G176" s="24" t="s">
         <v>924</v>
       </c>
-      <c r="H176" s="59"/>
-      <c r="I176" s="59"/>
-      <c r="J176" s="59"/>
-      <c r="K176" s="59"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="57"/>
+      <c r="K176" s="57"/>
     </row>
     <row r="177" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="61"/>
+      <c r="A177" s="58"/>
       <c r="B177" s="21" t="s">
         <v>358</v>
       </c>
@@ -15166,13 +15160,13 @@
       <c r="G177" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="H177" s="59"/>
-      <c r="I177" s="59"/>
-      <c r="J177" s="59"/>
-      <c r="K177" s="59"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="57"/>
+      <c r="K177" s="57"/>
     </row>
     <row r="178" spans="1:11" ht="404.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="61"/>
+      <c r="A178" s="58"/>
       <c r="B178" s="21" t="s">
         <v>307</v>
       </c>
@@ -15191,13 +15185,13 @@
       <c r="G178" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H178" s="59"/>
-      <c r="I178" s="59"/>
-      <c r="J178" s="59"/>
-      <c r="K178" s="59"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
+      <c r="J178" s="57"/>
+      <c r="K178" s="57"/>
     </row>
     <row r="179" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="61"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="21" t="s">
         <v>327</v>
       </c>
@@ -15216,13 +15210,13 @@
       <c r="G179" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H179" s="59"/>
-      <c r="I179" s="59"/>
-      <c r="J179" s="59"/>
-      <c r="K179" s="59"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="57"/>
+      <c r="J179" s="57"/>
+      <c r="K179" s="57"/>
     </row>
     <row r="180" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="61"/>
+      <c r="A180" s="58"/>
       <c r="B180" s="21" t="s">
         <v>595</v>
       </c>
@@ -15241,13 +15235,13 @@
       <c r="G180" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H180" s="59"/>
-      <c r="I180" s="59"/>
-      <c r="J180" s="59"/>
-      <c r="K180" s="59"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="57"/>
+      <c r="K180" s="57"/>
     </row>
     <row r="181" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="61"/>
+      <c r="A181" s="58"/>
       <c r="B181" s="21" t="s">
         <v>171</v>
       </c>
@@ -15266,13 +15260,13 @@
       <c r="G181" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H181" s="59"/>
-      <c r="I181" s="59"/>
-      <c r="J181" s="59"/>
-      <c r="K181" s="59"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
+      <c r="K181" s="57"/>
     </row>
     <row r="182" spans="1:11" ht="361.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="61"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="21" t="s">
         <v>310</v>
       </c>
@@ -15291,13 +15285,13 @@
       <c r="G182" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H182" s="59"/>
-      <c r="I182" s="59"/>
-      <c r="J182" s="59"/>
-      <c r="K182" s="59"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="57"/>
     </row>
     <row r="183" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="61"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="21" t="s">
         <v>330</v>
       </c>
@@ -15316,13 +15310,13 @@
       <c r="G183" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="H183" s="59"/>
-      <c r="I183" s="59"/>
-      <c r="J183" s="59"/>
-      <c r="K183" s="59"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
+      <c r="J183" s="57"/>
+      <c r="K183" s="57"/>
     </row>
     <row r="184" spans="1:11" ht="390" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="62" t="s">
+      <c r="A184" s="59" t="s">
         <v>610</v>
       </c>
       <c r="B184" s="21" t="s">
@@ -15343,21 +15337,21 @@
       <c r="G184" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H184" s="58" t="s">
+      <c r="H184" s="56" t="s">
         <v>945</v>
       </c>
-      <c r="I184" s="58" t="s">
+      <c r="I184" s="56" t="s">
         <v>946</v>
       </c>
-      <c r="J184" s="58" t="s">
+      <c r="J184" s="56" t="s">
         <v>947</v>
       </c>
-      <c r="K184" s="58" t="s">
+      <c r="K184" s="56" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="62"/>
+      <c r="A185" s="59"/>
       <c r="B185" s="21" t="s">
         <v>463</v>
       </c>
@@ -15376,13 +15370,13 @@
       <c r="G185" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H185" s="59"/>
-      <c r="I185" s="59"/>
-      <c r="J185" s="59"/>
-      <c r="K185" s="59"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="57"/>
+      <c r="K185" s="57"/>
     </row>
     <row r="186" spans="1:11" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="62"/>
+      <c r="A186" s="59"/>
       <c r="B186" s="21" t="s">
         <v>467</v>
       </c>
@@ -15401,13 +15395,13 @@
       <c r="G186" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="59"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
+      <c r="J186" s="57"/>
+      <c r="K186" s="57"/>
     </row>
     <row r="187" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="62"/>
+      <c r="A187" s="59"/>
       <c r="B187" s="21" t="s">
         <v>383</v>
       </c>
@@ -15426,13 +15420,13 @@
       <c r="G187" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="57"/>
+      <c r="J187" s="57"/>
+      <c r="K187" s="57"/>
     </row>
     <row r="188" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="62"/>
+      <c r="A188" s="59"/>
       <c r="B188" s="21" t="s">
         <v>479</v>
       </c>
@@ -15451,13 +15445,13 @@
       <c r="G188" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H188" s="59"/>
-      <c r="I188" s="59"/>
-      <c r="J188" s="59"/>
-      <c r="K188" s="59"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="57"/>
+      <c r="K188" s="57"/>
     </row>
     <row r="189" spans="1:11" ht="375.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="62"/>
+      <c r="A189" s="59"/>
       <c r="B189" s="21" t="s">
         <v>393</v>
       </c>
@@ -15476,13 +15470,13 @@
       <c r="G189" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
-      <c r="J189" s="59"/>
-      <c r="K189" s="59"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="57"/>
+      <c r="K189" s="57"/>
     </row>
     <row r="190" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="62"/>
+      <c r="A190" s="59"/>
       <c r="B190" s="21" t="s">
         <v>470</v>
       </c>
@@ -15501,13 +15495,13 @@
       <c r="G190" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H190" s="59"/>
-      <c r="I190" s="59"/>
-      <c r="J190" s="59"/>
-      <c r="K190" s="59"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="57"/>
+      <c r="J190" s="57"/>
+      <c r="K190" s="57"/>
     </row>
     <row r="191" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="62"/>
+      <c r="A191" s="59"/>
       <c r="B191" s="21" t="s">
         <v>392</v>
       </c>
@@ -15526,13 +15520,13 @@
       <c r="G191" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
-      <c r="J191" s="59"/>
-      <c r="K191" s="59"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
+      <c r="K191" s="57"/>
     </row>
     <row r="192" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="62"/>
+      <c r="A192" s="59"/>
       <c r="B192" s="21" t="s">
         <v>472</v>
       </c>
@@ -15551,13 +15545,13 @@
       <c r="G192" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
-      <c r="J192" s="59"/>
-      <c r="K192" s="59"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57"/>
+      <c r="K192" s="57"/>
     </row>
     <row r="193" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="62"/>
+      <c r="A193" s="59"/>
       <c r="B193" s="21" t="s">
         <v>615</v>
       </c>
@@ -15576,13 +15570,13 @@
       <c r="G193" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="H193" s="59"/>
-      <c r="I193" s="59"/>
-      <c r="J193" s="59"/>
-      <c r="K193" s="59"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
+      <c r="K193" s="57"/>
     </row>
     <row r="194" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="62"/>
+      <c r="A194" s="59"/>
       <c r="B194" s="21" t="s">
         <v>477</v>
       </c>
@@ -15601,13 +15595,13 @@
       <c r="G194" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="H194" s="59"/>
-      <c r="I194" s="59"/>
-      <c r="J194" s="59"/>
-      <c r="K194" s="59"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
+      <c r="K194" s="57"/>
     </row>
     <row r="195" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="62"/>
+      <c r="A195" s="59"/>
       <c r="B195" s="21" t="s">
         <v>391</v>
       </c>
@@ -15626,13 +15620,13 @@
       <c r="G195" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
-      <c r="J195" s="59"/>
-      <c r="K195" s="59"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="57"/>
+      <c r="K195" s="57"/>
     </row>
     <row r="196" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="62"/>
+      <c r="A196" s="59"/>
       <c r="B196" s="21" t="s">
         <v>426</v>
       </c>
@@ -15651,13 +15645,13 @@
       <c r="G196" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H196" s="59"/>
-      <c r="I196" s="59"/>
-      <c r="J196" s="59"/>
-      <c r="K196" s="59"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="57"/>
+      <c r="J196" s="57"/>
+      <c r="K196" s="57"/>
     </row>
     <row r="197" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="62"/>
+      <c r="A197" s="59"/>
       <c r="B197" s="21" t="s">
         <v>618</v>
       </c>
@@ -15676,13 +15670,13 @@
       <c r="G197" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H197" s="59"/>
-      <c r="I197" s="59"/>
-      <c r="J197" s="59"/>
-      <c r="K197" s="59"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="57"/>
+      <c r="K197" s="57"/>
     </row>
     <row r="198" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="62"/>
+      <c r="A198" s="59"/>
       <c r="B198" s="21" t="s">
         <v>439</v>
       </c>
@@ -15701,13 +15695,13 @@
       <c r="G198" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
-      <c r="J198" s="59"/>
-      <c r="K198" s="59"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
+      <c r="J198" s="57"/>
+      <c r="K198" s="57"/>
     </row>
     <row r="199" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="62"/>
+      <c r="A199" s="59"/>
       <c r="B199" s="21" t="s">
         <v>621</v>
       </c>
@@ -15726,13 +15720,13 @@
       <c r="G199" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-      <c r="J199" s="59"/>
-      <c r="K199" s="59"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57"/>
+      <c r="K199" s="57"/>
     </row>
     <row r="200" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="62"/>
+      <c r="A200" s="59"/>
       <c r="B200" s="21" t="s">
         <v>385</v>
       </c>
@@ -15751,13 +15745,13 @@
       <c r="G200" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H200" s="59"/>
-      <c r="I200" s="59"/>
-      <c r="J200" s="59"/>
-      <c r="K200" s="59"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="57"/>
+      <c r="J200" s="57"/>
+      <c r="K200" s="57"/>
     </row>
     <row r="201" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="61" t="s">
+      <c r="A201" s="58" t="s">
         <v>635</v>
       </c>
       <c r="B201" s="21" t="s">
@@ -15778,21 +15772,21 @@
       <c r="G201" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H201" s="58" t="s">
+      <c r="H201" s="56" t="s">
         <v>940</v>
       </c>
-      <c r="I201" s="58" t="s">
+      <c r="I201" s="56" t="s">
         <v>941</v>
       </c>
-      <c r="J201" s="58" t="s">
+      <c r="J201" s="56" t="s">
         <v>933</v>
       </c>
-      <c r="K201" s="58" t="s">
+      <c r="K201" s="56" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="246" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="61"/>
+      <c r="A202" s="58"/>
       <c r="B202" s="21" t="s">
         <v>638</v>
       </c>
@@ -15811,13 +15805,13 @@
       <c r="G202" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H202" s="59"/>
-      <c r="I202" s="59"/>
-      <c r="J202" s="59"/>
-      <c r="K202" s="59"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
+      <c r="J202" s="57"/>
+      <c r="K202" s="57"/>
     </row>
     <row r="203" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="61"/>
+      <c r="A203" s="58"/>
       <c r="B203" s="21" t="s">
         <v>593</v>
       </c>
@@ -15836,13 +15830,13 @@
       <c r="G203" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H203" s="59"/>
-      <c r="I203" s="59"/>
-      <c r="J203" s="59"/>
-      <c r="K203" s="59"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
+      <c r="J203" s="57"/>
+      <c r="K203" s="57"/>
     </row>
     <row r="204" spans="1:11" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="61"/>
+      <c r="A204" s="58"/>
       <c r="B204" s="21" t="s">
         <v>468</v>
       </c>
@@ -15861,13 +15855,13 @@
       <c r="G204" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H204" s="59"/>
-      <c r="I204" s="59"/>
-      <c r="J204" s="59"/>
-      <c r="K204" s="59"/>
+      <c r="H204" s="57"/>
+      <c r="I204" s="57"/>
+      <c r="J204" s="57"/>
+      <c r="K204" s="57"/>
     </row>
     <row r="205" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="61"/>
+      <c r="A205" s="58"/>
       <c r="B205" s="21" t="s">
         <v>594</v>
       </c>
@@ -15886,13 +15880,13 @@
       <c r="G205" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H205" s="59"/>
-      <c r="I205" s="59"/>
-      <c r="J205" s="59"/>
-      <c r="K205" s="59"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="57"/>
+      <c r="J205" s="57"/>
+      <c r="K205" s="57"/>
     </row>
     <row r="206" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="61"/>
+      <c r="A206" s="58"/>
       <c r="B206" s="21" t="s">
         <v>640</v>
       </c>
@@ -15911,13 +15905,13 @@
       <c r="G206" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H206" s="59"/>
-      <c r="I206" s="59"/>
-      <c r="J206" s="59"/>
-      <c r="K206" s="59"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="57"/>
+      <c r="J206" s="57"/>
+      <c r="K206" s="57"/>
     </row>
     <row r="207" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="61"/>
+      <c r="A207" s="58"/>
       <c r="B207" s="21" t="s">
         <v>221</v>
       </c>
@@ -15936,13 +15930,13 @@
       <c r="G207" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H207" s="59"/>
-      <c r="I207" s="59"/>
-      <c r="J207" s="59"/>
-      <c r="K207" s="59"/>
+      <c r="H207" s="57"/>
+      <c r="I207" s="57"/>
+      <c r="J207" s="57"/>
+      <c r="K207" s="57"/>
     </row>
     <row r="208" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="61"/>
+      <c r="A208" s="58"/>
       <c r="B208" s="21" t="s">
         <v>478</v>
       </c>
@@ -15961,13 +15955,13 @@
       <c r="G208" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-      <c r="J208" s="59"/>
-      <c r="K208" s="59"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="57"/>
+      <c r="J208" s="57"/>
+      <c r="K208" s="57"/>
     </row>
     <row r="209" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="61"/>
+      <c r="A209" s="58"/>
       <c r="B209" s="21" t="s">
         <v>471</v>
       </c>
@@ -15986,13 +15980,13 @@
       <c r="G209" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H209" s="59"/>
-      <c r="I209" s="59"/>
-      <c r="J209" s="59"/>
-      <c r="K209" s="59"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57"/>
+      <c r="K209" s="57"/>
     </row>
     <row r="210" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="61"/>
+      <c r="A210" s="58"/>
       <c r="B210" s="21" t="s">
         <v>188</v>
       </c>
@@ -16011,13 +16005,13 @@
       <c r="G210" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H210" s="59"/>
-      <c r="I210" s="59"/>
-      <c r="J210" s="59"/>
-      <c r="K210" s="59"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
+      <c r="J210" s="57"/>
+      <c r="K210" s="57"/>
     </row>
     <row r="211" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="61"/>
+      <c r="A211" s="58"/>
       <c r="B211" s="21" t="s">
         <v>480</v>
       </c>
@@ -16036,13 +16030,13 @@
       <c r="G211" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H211" s="59"/>
-      <c r="I211" s="59"/>
-      <c r="J211" s="59"/>
-      <c r="K211" s="59"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="57"/>
+      <c r="J211" s="57"/>
+      <c r="K211" s="57"/>
     </row>
     <row r="212" spans="1:11" ht="375.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="61"/>
+      <c r="A212" s="58"/>
       <c r="B212" s="21" t="s">
         <v>213</v>
       </c>
@@ -16061,13 +16055,13 @@
       <c r="G212" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H212" s="59"/>
-      <c r="I212" s="59"/>
-      <c r="J212" s="59"/>
-      <c r="K212" s="59"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57"/>
+      <c r="K212" s="57"/>
     </row>
     <row r="213" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="61"/>
+      <c r="A213" s="58"/>
       <c r="B213" s="21" t="s">
         <v>469</v>
       </c>
@@ -16086,13 +16080,13 @@
       <c r="G213" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H213" s="59"/>
-      <c r="I213" s="59"/>
-      <c r="J213" s="59"/>
-      <c r="K213" s="59"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57"/>
+      <c r="K213" s="57"/>
     </row>
     <row r="214" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="61"/>
+      <c r="A214" s="58"/>
       <c r="B214" s="21" t="s">
         <v>227</v>
       </c>
@@ -16111,13 +16105,13 @@
       <c r="G214" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H214" s="59"/>
-      <c r="I214" s="59"/>
-      <c r="J214" s="59"/>
-      <c r="K214" s="59"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="57"/>
+      <c r="J214" s="57"/>
+      <c r="K214" s="57"/>
     </row>
     <row r="215" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="61"/>
+      <c r="A215" s="58"/>
       <c r="B215" s="21" t="s">
         <v>464</v>
       </c>
@@ -16136,13 +16130,13 @@
       <c r="G215" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H215" s="59"/>
-      <c r="I215" s="59"/>
-      <c r="J215" s="59"/>
-      <c r="K215" s="59"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57"/>
+      <c r="K215" s="57"/>
     </row>
     <row r="216" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="61"/>
+      <c r="A216" s="58"/>
       <c r="B216" s="21" t="s">
         <v>182</v>
       </c>
@@ -16161,13 +16155,13 @@
       <c r="G216" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H216" s="59"/>
-      <c r="I216" s="59"/>
-      <c r="J216" s="59"/>
-      <c r="K216" s="59"/>
+      <c r="H216" s="57"/>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57"/>
+      <c r="K216" s="57"/>
     </row>
     <row r="217" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="61"/>
+      <c r="A217" s="58"/>
       <c r="B217" s="21" t="s">
         <v>184</v>
       </c>
@@ -16186,13 +16180,13 @@
       <c r="G217" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H217" s="59"/>
-      <c r="I217" s="59"/>
-      <c r="J217" s="59"/>
-      <c r="K217" s="59"/>
+      <c r="H217" s="57"/>
+      <c r="I217" s="57"/>
+      <c r="J217" s="57"/>
+      <c r="K217" s="57"/>
     </row>
     <row r="218" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="61"/>
+      <c r="A218" s="58"/>
       <c r="B218" s="21" t="s">
         <v>194</v>
       </c>
@@ -16211,13 +16205,13 @@
       <c r="G218" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H218" s="59"/>
-      <c r="I218" s="59"/>
-      <c r="J218" s="59"/>
-      <c r="K218" s="59"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="57"/>
+      <c r="J218" s="57"/>
+      <c r="K218" s="57"/>
     </row>
     <row r="219" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="61"/>
+      <c r="A219" s="58"/>
       <c r="B219" s="21" t="s">
         <v>587</v>
       </c>
@@ -16236,13 +16230,13 @@
       <c r="G219" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
-      <c r="J219" s="59"/>
-      <c r="K219" s="59"/>
+      <c r="H219" s="57"/>
+      <c r="I219" s="57"/>
+      <c r="J219" s="57"/>
+      <c r="K219" s="57"/>
     </row>
     <row r="220" spans="1:11" ht="303.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="62" t="s">
+      <c r="A220" s="59" t="s">
         <v>658</v>
       </c>
       <c r="B220" s="21" t="s">
@@ -16263,21 +16257,21 @@
       <c r="G220" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H220" s="58" t="s">
+      <c r="H220" s="56" t="s">
         <v>934</v>
       </c>
-      <c r="I220" s="58" t="s">
+      <c r="I220" s="56" t="s">
         <v>935</v>
       </c>
-      <c r="J220" s="58" t="s">
+      <c r="J220" s="56" t="s">
         <v>933</v>
       </c>
-      <c r="K220" s="58" t="s">
+      <c r="K220" s="56" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="62"/>
+      <c r="A221" s="59"/>
       <c r="B221" s="21" t="s">
         <v>659</v>
       </c>
@@ -16296,13 +16290,13 @@
       <c r="G221" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H221" s="59"/>
-      <c r="I221" s="59"/>
-      <c r="J221" s="59"/>
-      <c r="K221" s="59"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="57"/>
+      <c r="J221" s="57"/>
+      <c r="K221" s="57"/>
     </row>
     <row r="222" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="62"/>
+      <c r="A222" s="59"/>
       <c r="B222" s="21" t="s">
         <v>348</v>
       </c>
@@ -16321,13 +16315,13 @@
       <c r="G222" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H222" s="59"/>
-      <c r="I222" s="59"/>
-      <c r="J222" s="59"/>
-      <c r="K222" s="59"/>
+      <c r="H222" s="57"/>
+      <c r="I222" s="57"/>
+      <c r="J222" s="57"/>
+      <c r="K222" s="57"/>
     </row>
     <row r="223" spans="1:11" ht="274.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="62"/>
+      <c r="A223" s="59"/>
       <c r="B223" s="21" t="s">
         <v>356</v>
       </c>
@@ -16346,13 +16340,13 @@
       <c r="G223" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H223" s="59"/>
-      <c r="I223" s="59"/>
-      <c r="J223" s="59"/>
-      <c r="K223" s="59"/>
+      <c r="H223" s="57"/>
+      <c r="I223" s="57"/>
+      <c r="J223" s="57"/>
+      <c r="K223" s="57"/>
     </row>
     <row r="224" spans="1:11" ht="274.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="62"/>
+      <c r="A224" s="59"/>
       <c r="B224" s="21" t="s">
         <v>643</v>
       </c>
@@ -16371,13 +16365,13 @@
       <c r="G224" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H224" s="59"/>
-      <c r="I224" s="59"/>
-      <c r="J224" s="59"/>
-      <c r="K224" s="59"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="57"/>
+      <c r="J224" s="57"/>
+      <c r="K224" s="57"/>
     </row>
     <row r="225" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="62"/>
+      <c r="A225" s="59"/>
       <c r="B225" s="21" t="s">
         <v>660</v>
       </c>
@@ -16396,13 +16390,13 @@
       <c r="G225" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H225" s="59"/>
-      <c r="I225" s="59"/>
-      <c r="J225" s="59"/>
-      <c r="K225" s="59"/>
+      <c r="H225" s="57"/>
+      <c r="I225" s="57"/>
+      <c r="J225" s="57"/>
+      <c r="K225" s="57"/>
     </row>
     <row r="226" spans="1:11" ht="332.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="62"/>
+      <c r="A226" s="59"/>
       <c r="B226" s="21" t="s">
         <v>662</v>
       </c>
@@ -16421,13 +16415,13 @@
       <c r="G226" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H226" s="59"/>
-      <c r="I226" s="59"/>
-      <c r="J226" s="59"/>
-      <c r="K226" s="59"/>
+      <c r="H226" s="57"/>
+      <c r="I226" s="57"/>
+      <c r="J226" s="57"/>
+      <c r="K226" s="57"/>
     </row>
     <row r="227" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="62"/>
+      <c r="A227" s="59"/>
       <c r="B227" s="21" t="s">
         <v>349</v>
       </c>
@@ -16446,13 +16440,13 @@
       <c r="G227" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H227" s="59"/>
-      <c r="I227" s="59"/>
-      <c r="J227" s="59"/>
-      <c r="K227" s="59"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="57"/>
+      <c r="J227" s="57"/>
+      <c r="K227" s="57"/>
     </row>
     <row r="228" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="62"/>
+      <c r="A228" s="59"/>
       <c r="B228" s="21" t="s">
         <v>535</v>
       </c>
@@ -16471,13 +16465,13 @@
       <c r="G228" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H228" s="59"/>
-      <c r="I228" s="59"/>
-      <c r="J228" s="59"/>
-      <c r="K228" s="59"/>
+      <c r="H228" s="57"/>
+      <c r="I228" s="57"/>
+      <c r="J228" s="57"/>
+      <c r="K228" s="57"/>
     </row>
     <row r="229" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="62"/>
+      <c r="A229" s="59"/>
       <c r="B229" s="21" t="s">
         <v>665</v>
       </c>
@@ -16496,13 +16490,13 @@
       <c r="G229" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H229" s="59"/>
-      <c r="I229" s="59"/>
-      <c r="J229" s="59"/>
-      <c r="K229" s="59"/>
+      <c r="H229" s="57"/>
+      <c r="I229" s="57"/>
+      <c r="J229" s="57"/>
+      <c r="K229" s="57"/>
     </row>
     <row r="230" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="62"/>
+      <c r="A230" s="59"/>
       <c r="B230" s="21" t="s">
         <v>639</v>
       </c>
@@ -16521,13 +16515,13 @@
       <c r="G230" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H230" s="59"/>
-      <c r="I230" s="59"/>
-      <c r="J230" s="59"/>
-      <c r="K230" s="59"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="57"/>
+      <c r="J230" s="57"/>
+      <c r="K230" s="57"/>
     </row>
     <row r="231" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="62"/>
+      <c r="A231" s="59"/>
       <c r="B231" s="21" t="s">
         <v>667</v>
       </c>
@@ -16546,13 +16540,13 @@
       <c r="G231" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H231" s="59"/>
-      <c r="I231" s="59"/>
-      <c r="J231" s="59"/>
-      <c r="K231" s="59"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
     </row>
     <row r="232" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="62"/>
+      <c r="A232" s="59"/>
       <c r="B232" s="21" t="s">
         <v>355</v>
       </c>
@@ -16571,13 +16565,13 @@
       <c r="G232" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H232" s="59"/>
-      <c r="I232" s="59"/>
-      <c r="J232" s="59"/>
-      <c r="K232" s="59"/>
+      <c r="H232" s="57"/>
+      <c r="I232" s="57"/>
+      <c r="J232" s="57"/>
+      <c r="K232" s="57"/>
     </row>
     <row r="233" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="62"/>
+      <c r="A233" s="59"/>
       <c r="B233" s="21" t="s">
         <v>642</v>
       </c>
@@ -16596,13 +16590,13 @@
       <c r="G233" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H233" s="59"/>
-      <c r="I233" s="59"/>
-      <c r="J233" s="59"/>
-      <c r="K233" s="59"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="57"/>
+      <c r="J233" s="57"/>
+      <c r="K233" s="57"/>
     </row>
     <row r="234" spans="1:11" ht="361.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="62"/>
+      <c r="A234" s="59"/>
       <c r="B234" s="21" t="s">
         <v>613</v>
       </c>
@@ -16621,13 +16615,13 @@
       <c r="G234" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H234" s="59"/>
-      <c r="I234" s="59"/>
-      <c r="J234" s="59"/>
-      <c r="K234" s="59"/>
+      <c r="H234" s="57"/>
+      <c r="I234" s="57"/>
+      <c r="J234" s="57"/>
+      <c r="K234" s="57"/>
     </row>
     <row r="235" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="62"/>
+      <c r="A235" s="59"/>
       <c r="B235" s="21" t="s">
         <v>669</v>
       </c>
@@ -16646,13 +16640,13 @@
       <c r="G235" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H235" s="59"/>
-      <c r="I235" s="59"/>
-      <c r="J235" s="59"/>
-      <c r="K235" s="59"/>
+      <c r="H235" s="57"/>
+      <c r="I235" s="57"/>
+      <c r="J235" s="57"/>
+      <c r="K235" s="57"/>
     </row>
     <row r="236" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="62"/>
+      <c r="A236" s="59"/>
       <c r="B236" s="21" t="s">
         <v>357</v>
       </c>
@@ -16671,13 +16665,13 @@
       <c r="G236" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H236" s="59"/>
-      <c r="I236" s="59"/>
-      <c r="J236" s="59"/>
-      <c r="K236" s="59"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="57"/>
+      <c r="J236" s="57"/>
+      <c r="K236" s="57"/>
     </row>
     <row r="237" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="62"/>
+      <c r="A237" s="59"/>
       <c r="B237" s="21" t="s">
         <v>527</v>
       </c>
@@ -16696,13 +16690,13 @@
       <c r="G237" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H237" s="59"/>
-      <c r="I237" s="59"/>
-      <c r="J237" s="59"/>
-      <c r="K237" s="59"/>
+      <c r="H237" s="57"/>
+      <c r="I237" s="57"/>
+      <c r="J237" s="57"/>
+      <c r="K237" s="57"/>
     </row>
     <row r="238" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="62"/>
+      <c r="A238" s="59"/>
       <c r="B238" s="21" t="s">
         <v>672</v>
       </c>
@@ -16721,13 +16715,13 @@
       <c r="G238" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H238" s="59"/>
-      <c r="I238" s="59"/>
-      <c r="J238" s="59"/>
-      <c r="K238" s="59"/>
+      <c r="H238" s="57"/>
+      <c r="I238" s="57"/>
+      <c r="J238" s="57"/>
+      <c r="K238" s="57"/>
     </row>
     <row r="239" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="61" t="s">
+      <c r="A239" s="58" t="s">
         <v>689</v>
       </c>
       <c r="B239" s="21" t="s">
@@ -16748,21 +16742,21 @@
       <c r="G239" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H239" s="58" t="s">
+      <c r="H239" s="56" t="s">
         <v>931</v>
       </c>
-      <c r="I239" s="58" t="s">
+      <c r="I239" s="56" t="s">
         <v>932</v>
       </c>
-      <c r="J239" s="58" t="s">
+      <c r="J239" s="56" t="s">
         <v>936</v>
       </c>
-      <c r="K239" s="58" t="s">
+      <c r="K239" s="56" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="61"/>
+      <c r="A240" s="58"/>
       <c r="B240" s="21" t="s">
         <v>466</v>
       </c>
@@ -16781,13 +16775,13 @@
       <c r="G240" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H240" s="59"/>
-      <c r="I240" s="59"/>
-      <c r="J240" s="59"/>
-      <c r="K240" s="59"/>
+      <c r="H240" s="57"/>
+      <c r="I240" s="57"/>
+      <c r="J240" s="57"/>
+      <c r="K240" s="57"/>
     </row>
     <row r="241" spans="1:11" ht="246" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="61"/>
+      <c r="A241" s="58"/>
       <c r="B241" s="21" t="s">
         <v>638</v>
       </c>
@@ -16806,13 +16800,13 @@
       <c r="G241" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H241" s="59"/>
-      <c r="I241" s="59"/>
-      <c r="J241" s="59"/>
-      <c r="K241" s="59"/>
+      <c r="H241" s="57"/>
+      <c r="I241" s="57"/>
+      <c r="J241" s="57"/>
+      <c r="K241" s="57"/>
     </row>
     <row r="242" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="61"/>
+      <c r="A242" s="58"/>
       <c r="B242" s="21" t="s">
         <v>182</v>
       </c>
@@ -16831,13 +16825,13 @@
       <c r="G242" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H242" s="59"/>
-      <c r="I242" s="59"/>
-      <c r="J242" s="59"/>
-      <c r="K242" s="59"/>
+      <c r="H242" s="57"/>
+      <c r="I242" s="57"/>
+      <c r="J242" s="57"/>
+      <c r="K242" s="57"/>
     </row>
     <row r="243" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="61"/>
+      <c r="A243" s="58"/>
       <c r="B243" s="21" t="s">
         <v>640</v>
       </c>
@@ -16856,13 +16850,13 @@
       <c r="G243" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H243" s="59"/>
-      <c r="I243" s="59"/>
-      <c r="J243" s="59"/>
-      <c r="K243" s="59"/>
+      <c r="H243" s="57"/>
+      <c r="I243" s="57"/>
+      <c r="J243" s="57"/>
+      <c r="K243" s="57"/>
     </row>
     <row r="244" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="61"/>
+      <c r="A244" s="58"/>
       <c r="B244" s="21" t="s">
         <v>190</v>
       </c>
@@ -16881,13 +16875,13 @@
       <c r="G244" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H244" s="59"/>
-      <c r="I244" s="59"/>
-      <c r="J244" s="59"/>
-      <c r="K244" s="59"/>
+      <c r="H244" s="57"/>
+      <c r="I244" s="57"/>
+      <c r="J244" s="57"/>
+      <c r="K244" s="57"/>
     </row>
     <row r="245" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="61"/>
+      <c r="A245" s="58"/>
       <c r="B245" s="21" t="s">
         <v>188</v>
       </c>
@@ -16906,13 +16900,13 @@
       <c r="G245" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H245" s="59"/>
-      <c r="I245" s="59"/>
-      <c r="J245" s="59"/>
-      <c r="K245" s="59"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="57"/>
+      <c r="J245" s="57"/>
+      <c r="K245" s="57"/>
     </row>
     <row r="246" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="61"/>
+      <c r="A246" s="58"/>
       <c r="B246" s="21" t="s">
         <v>217</v>
       </c>
@@ -16931,13 +16925,13 @@
       <c r="G246" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H246" s="59"/>
-      <c r="I246" s="59"/>
-      <c r="J246" s="59"/>
-      <c r="K246" s="59"/>
+      <c r="H246" s="57"/>
+      <c r="I246" s="57"/>
+      <c r="J246" s="57"/>
+      <c r="K246" s="57"/>
     </row>
     <row r="247" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="61"/>
+      <c r="A247" s="58"/>
       <c r="B247" s="21" t="s">
         <v>471</v>
       </c>
@@ -16956,13 +16950,13 @@
       <c r="G247" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H247" s="59"/>
-      <c r="I247" s="59"/>
-      <c r="J247" s="59"/>
-      <c r="K247" s="59"/>
+      <c r="H247" s="57"/>
+      <c r="I247" s="57"/>
+      <c r="J247" s="57"/>
+      <c r="K247" s="57"/>
     </row>
     <row r="248" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="61"/>
+      <c r="A248" s="58"/>
       <c r="B248" s="21" t="s">
         <v>469</v>
       </c>
@@ -16981,13 +16975,13 @@
       <c r="G248" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H248" s="59"/>
-      <c r="I248" s="59"/>
-      <c r="J248" s="59"/>
-      <c r="K248" s="59"/>
+      <c r="H248" s="57"/>
+      <c r="I248" s="57"/>
+      <c r="J248" s="57"/>
+      <c r="K248" s="57"/>
     </row>
     <row r="249" spans="1:11" ht="346.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="61"/>
+      <c r="A249" s="58"/>
       <c r="B249" s="21" t="s">
         <v>474</v>
       </c>
@@ -17006,13 +17000,13 @@
       <c r="G249" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H249" s="59"/>
-      <c r="I249" s="59"/>
-      <c r="J249" s="59"/>
-      <c r="K249" s="59"/>
+      <c r="H249" s="57"/>
+      <c r="I249" s="57"/>
+      <c r="J249" s="57"/>
+      <c r="K249" s="57"/>
     </row>
     <row r="250" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="61"/>
+      <c r="A250" s="58"/>
       <c r="B250" s="21" t="s">
         <v>464</v>
       </c>
@@ -17031,13 +17025,13 @@
       <c r="G250" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H250" s="59"/>
-      <c r="I250" s="59"/>
-      <c r="J250" s="59"/>
-      <c r="K250" s="59"/>
+      <c r="H250" s="57"/>
+      <c r="I250" s="57"/>
+      <c r="J250" s="57"/>
+      <c r="K250" s="57"/>
     </row>
     <row r="251" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="61"/>
+      <c r="A251" s="58"/>
       <c r="B251" s="21" t="s">
         <v>192</v>
       </c>
@@ -17056,13 +17050,13 @@
       <c r="G251" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H251" s="59"/>
-      <c r="I251" s="59"/>
-      <c r="J251" s="59"/>
-      <c r="K251" s="59"/>
+      <c r="H251" s="57"/>
+      <c r="I251" s="57"/>
+      <c r="J251" s="57"/>
+      <c r="K251" s="57"/>
     </row>
     <row r="252" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="61"/>
+      <c r="A252" s="58"/>
       <c r="B252" s="21" t="s">
         <v>468</v>
       </c>
@@ -17081,13 +17075,13 @@
       <c r="G252" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H252" s="59"/>
-      <c r="I252" s="59"/>
-      <c r="J252" s="59"/>
-      <c r="K252" s="59"/>
+      <c r="H252" s="57"/>
+      <c r="I252" s="57"/>
+      <c r="J252" s="57"/>
+      <c r="K252" s="57"/>
     </row>
     <row r="253" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="61"/>
+      <c r="A253" s="58"/>
       <c r="B253" s="21" t="s">
         <v>696</v>
       </c>
@@ -17106,13 +17100,13 @@
       <c r="G253" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H253" s="59"/>
-      <c r="I253" s="59"/>
-      <c r="J253" s="59"/>
-      <c r="K253" s="59"/>
+      <c r="H253" s="57"/>
+      <c r="I253" s="57"/>
+      <c r="J253" s="57"/>
+      <c r="K253" s="57"/>
     </row>
     <row r="254" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="61"/>
+      <c r="A254" s="58"/>
       <c r="B254" s="21" t="s">
         <v>698</v>
       </c>
@@ -17131,13 +17125,13 @@
       <c r="G254" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H254" s="59"/>
-      <c r="I254" s="59"/>
-      <c r="J254" s="59"/>
-      <c r="K254" s="59"/>
+      <c r="H254" s="57"/>
+      <c r="I254" s="57"/>
+      <c r="J254" s="57"/>
+      <c r="K254" s="57"/>
     </row>
     <row r="255" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="61"/>
+      <c r="A255" s="58"/>
       <c r="B255" s="21" t="s">
         <v>636</v>
       </c>
@@ -17156,13 +17150,13 @@
       <c r="G255" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H255" s="59"/>
-      <c r="I255" s="59"/>
-      <c r="J255" s="59"/>
-      <c r="K255" s="59"/>
+      <c r="H255" s="57"/>
+      <c r="I255" s="57"/>
+      <c r="J255" s="57"/>
+      <c r="K255" s="57"/>
     </row>
     <row r="256" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="61"/>
+      <c r="A256" s="58"/>
       <c r="B256" s="21" t="s">
         <v>184</v>
       </c>
@@ -17181,13 +17175,13 @@
       <c r="G256" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H256" s="59"/>
-      <c r="I256" s="59"/>
-      <c r="J256" s="59"/>
-      <c r="K256" s="59"/>
+      <c r="H256" s="57"/>
+      <c r="I256" s="57"/>
+      <c r="J256" s="57"/>
+      <c r="K256" s="57"/>
     </row>
     <row r="257" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="61"/>
+      <c r="A257" s="58"/>
       <c r="B257" s="21" t="s">
         <v>702</v>
       </c>
@@ -17206,13 +17200,13 @@
       <c r="G257" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H257" s="59"/>
-      <c r="I257" s="59"/>
-      <c r="J257" s="59"/>
-      <c r="K257" s="59"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="57"/>
+      <c r="J257" s="57"/>
+      <c r="K257" s="57"/>
     </row>
     <row r="258" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="61"/>
+      <c r="A258" s="58"/>
       <c r="B258" s="21" t="s">
         <v>213</v>
       </c>
@@ -17231,13 +17225,13 @@
       <c r="G258" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H258" s="59"/>
-      <c r="I258" s="59"/>
-      <c r="J258" s="59"/>
-      <c r="K258" s="59"/>
+      <c r="H258" s="57"/>
+      <c r="I258" s="57"/>
+      <c r="J258" s="57"/>
+      <c r="K258" s="57"/>
     </row>
     <row r="259" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="62" t="s">
+      <c r="A259" s="59" t="s">
         <v>720</v>
       </c>
       <c r="B259" s="21" t="s">
@@ -17258,21 +17252,21 @@
       <c r="G259" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H259" s="58" t="s">
+      <c r="H259" s="56" t="s">
         <v>928</v>
       </c>
-      <c r="I259" s="58" t="s">
+      <c r="I259" s="56" t="s">
         <v>929</v>
       </c>
-      <c r="J259" s="58" t="s">
+      <c r="J259" s="56" t="s">
         <v>930</v>
       </c>
-      <c r="K259" s="58" t="s">
+      <c r="K259" s="56" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="62"/>
+      <c r="A260" s="59"/>
       <c r="B260" s="21" t="s">
         <v>641</v>
       </c>
@@ -17291,13 +17285,13 @@
       <c r="G260" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H260" s="59"/>
-      <c r="I260" s="59"/>
-      <c r="J260" s="59"/>
-      <c r="K260" s="59"/>
+      <c r="H260" s="57"/>
+      <c r="I260" s="57"/>
+      <c r="J260" s="57"/>
+      <c r="K260" s="57"/>
     </row>
     <row r="261" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="62"/>
+      <c r="A261" s="59"/>
       <c r="B261" s="21" t="s">
         <v>622</v>
       </c>
@@ -17316,13 +17310,13 @@
       <c r="G261" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H261" s="59"/>
-      <c r="I261" s="59"/>
-      <c r="J261" s="59"/>
-      <c r="K261" s="59"/>
+      <c r="H261" s="57"/>
+      <c r="I261" s="57"/>
+      <c r="J261" s="57"/>
+      <c r="K261" s="57"/>
     </row>
     <row r="262" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="62"/>
+      <c r="A262" s="59"/>
       <c r="B262" s="21" t="s">
         <v>361</v>
       </c>
@@ -17341,13 +17335,13 @@
       <c r="G262" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="H262" s="59"/>
-      <c r="I262" s="59"/>
-      <c r="J262" s="59"/>
-      <c r="K262" s="59"/>
+      <c r="H262" s="57"/>
+      <c r="I262" s="57"/>
+      <c r="J262" s="57"/>
+      <c r="K262" s="57"/>
     </row>
     <row r="263" spans="1:11" ht="303.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="62"/>
+      <c r="A263" s="59"/>
       <c r="B263" s="21" t="s">
         <v>522</v>
       </c>
@@ -17366,13 +17360,13 @@
       <c r="G263" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H263" s="59"/>
-      <c r="I263" s="59"/>
-      <c r="J263" s="59"/>
-      <c r="K263" s="59"/>
+      <c r="H263" s="57"/>
+      <c r="I263" s="57"/>
+      <c r="J263" s="57"/>
+      <c r="K263" s="57"/>
     </row>
     <row r="264" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="62"/>
+      <c r="A264" s="59"/>
       <c r="B264" s="21" t="s">
         <v>722</v>
       </c>
@@ -17391,13 +17385,13 @@
       <c r="G264" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H264" s="59"/>
-      <c r="I264" s="59"/>
-      <c r="J264" s="59"/>
-      <c r="K264" s="59"/>
+      <c r="H264" s="57"/>
+      <c r="I264" s="57"/>
+      <c r="J264" s="57"/>
+      <c r="K264" s="57"/>
     </row>
     <row r="265" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="62"/>
+      <c r="A265" s="59"/>
       <c r="B265" s="21" t="s">
         <v>639</v>
       </c>
@@ -17416,13 +17410,13 @@
       <c r="G265" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H265" s="59"/>
-      <c r="I265" s="59"/>
-      <c r="J265" s="59"/>
-      <c r="K265" s="59"/>
+      <c r="H265" s="57"/>
+      <c r="I265" s="57"/>
+      <c r="J265" s="57"/>
+      <c r="K265" s="57"/>
     </row>
     <row r="266" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="62"/>
+      <c r="A266" s="59"/>
       <c r="B266" s="21" t="s">
         <v>360</v>
       </c>
@@ -17441,13 +17435,13 @@
       <c r="G266" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H266" s="59"/>
-      <c r="I266" s="59"/>
-      <c r="J266" s="59"/>
-      <c r="K266" s="59"/>
+      <c r="H266" s="57"/>
+      <c r="I266" s="57"/>
+      <c r="J266" s="57"/>
+      <c r="K266" s="57"/>
     </row>
     <row r="267" spans="1:11" ht="303.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="62"/>
+      <c r="A267" s="59"/>
       <c r="B267" s="21" t="s">
         <v>611</v>
       </c>
@@ -17466,13 +17460,13 @@
       <c r="G267" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H267" s="59"/>
-      <c r="I267" s="59"/>
-      <c r="J267" s="59"/>
-      <c r="K267" s="59"/>
+      <c r="H267" s="57"/>
+      <c r="I267" s="57"/>
+      <c r="J267" s="57"/>
+      <c r="K267" s="57"/>
     </row>
     <row r="268" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="62"/>
+      <c r="A268" s="59"/>
       <c r="B268" s="21" t="s">
         <v>348</v>
       </c>
@@ -17491,13 +17485,13 @@
       <c r="G268" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H268" s="59"/>
-      <c r="I268" s="59"/>
-      <c r="J268" s="59"/>
-      <c r="K268" s="59"/>
+      <c r="H268" s="57"/>
+      <c r="I268" s="57"/>
+      <c r="J268" s="57"/>
+      <c r="K268" s="57"/>
     </row>
     <row r="269" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="62"/>
+      <c r="A269" s="59"/>
       <c r="B269" s="21" t="s">
         <v>724</v>
       </c>
@@ -17516,13 +17510,13 @@
       <c r="G269" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H269" s="59"/>
-      <c r="I269" s="59"/>
-      <c r="J269" s="59"/>
-      <c r="K269" s="59"/>
+      <c r="H269" s="57"/>
+      <c r="I269" s="57"/>
+      <c r="J269" s="57"/>
+      <c r="K269" s="57"/>
     </row>
     <row r="270" spans="1:11" ht="274.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="62"/>
+      <c r="A270" s="59"/>
       <c r="B270" s="21" t="s">
         <v>620</v>
       </c>
@@ -17541,13 +17535,13 @@
       <c r="G270" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H270" s="59"/>
-      <c r="I270" s="59"/>
-      <c r="J270" s="59"/>
-      <c r="K270" s="59"/>
+      <c r="H270" s="57"/>
+      <c r="I270" s="57"/>
+      <c r="J270" s="57"/>
+      <c r="K270" s="57"/>
     </row>
     <row r="271" spans="1:11" ht="274.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="62"/>
+      <c r="A271" s="59"/>
       <c r="B271" s="21" t="s">
         <v>356</v>
       </c>
@@ -17566,13 +17560,13 @@
       <c r="G271" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H271" s="59"/>
-      <c r="I271" s="59"/>
-      <c r="J271" s="59"/>
-      <c r="K271" s="59"/>
+      <c r="H271" s="57"/>
+      <c r="I271" s="57"/>
+      <c r="J271" s="57"/>
+      <c r="K271" s="57"/>
     </row>
     <row r="272" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="62"/>
+      <c r="A272" s="59"/>
       <c r="B272" s="21" t="s">
         <v>619</v>
       </c>
@@ -17591,13 +17585,13 @@
       <c r="G272" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H272" s="59"/>
-      <c r="I272" s="59"/>
-      <c r="J272" s="59"/>
-      <c r="K272" s="59"/>
+      <c r="H272" s="57"/>
+      <c r="I272" s="57"/>
+      <c r="J272" s="57"/>
+      <c r="K272" s="57"/>
     </row>
     <row r="273" spans="1:11" ht="361.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="62"/>
+      <c r="A273" s="59"/>
       <c r="B273" s="21" t="s">
         <v>613</v>
       </c>
@@ -17616,13 +17610,13 @@
       <c r="G273" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H273" s="59"/>
-      <c r="I273" s="59"/>
-      <c r="J273" s="59"/>
-      <c r="K273" s="59"/>
+      <c r="H273" s="57"/>
+      <c r="I273" s="57"/>
+      <c r="J273" s="57"/>
+      <c r="K273" s="57"/>
     </row>
     <row r="274" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="62"/>
+      <c r="A274" s="59"/>
       <c r="B274" s="21" t="s">
         <v>659</v>
       </c>
@@ -17641,13 +17635,13 @@
       <c r="G274" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H274" s="59"/>
-      <c r="I274" s="59"/>
-      <c r="J274" s="59"/>
-      <c r="K274" s="59"/>
+      <c r="H274" s="57"/>
+      <c r="I274" s="57"/>
+      <c r="J274" s="57"/>
+      <c r="K274" s="57"/>
     </row>
     <row r="275" spans="1:11" ht="375.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="62"/>
+      <c r="A275" s="59"/>
       <c r="B275" s="21" t="s">
         <v>346</v>
       </c>
@@ -17666,13 +17660,13 @@
       <c r="G275" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H275" s="59"/>
-      <c r="I275" s="59"/>
-      <c r="J275" s="59"/>
-      <c r="K275" s="59"/>
+      <c r="H275" s="57"/>
+      <c r="I275" s="57"/>
+      <c r="J275" s="57"/>
+      <c r="K275" s="57"/>
     </row>
     <row r="276" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="62"/>
+      <c r="A276" s="59"/>
       <c r="B276" s="21" t="s">
         <v>727</v>
       </c>
@@ -17691,13 +17685,13 @@
       <c r="G276" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H276" s="59"/>
-      <c r="I276" s="59"/>
-      <c r="J276" s="59"/>
-      <c r="K276" s="59"/>
+      <c r="H276" s="57"/>
+      <c r="I276" s="57"/>
+      <c r="J276" s="57"/>
+      <c r="K276" s="57"/>
     </row>
     <row r="277" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="62"/>
+      <c r="A277" s="59"/>
       <c r="B277" s="21" t="s">
         <v>355</v>
       </c>
@@ -17716,13 +17710,13 @@
       <c r="G277" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H277" s="59"/>
-      <c r="I277" s="59"/>
-      <c r="J277" s="59"/>
-      <c r="K277" s="59"/>
+      <c r="H277" s="57"/>
+      <c r="I277" s="57"/>
+      <c r="J277" s="57"/>
+      <c r="K277" s="57"/>
     </row>
     <row r="278" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="62"/>
+      <c r="A278" s="59"/>
       <c r="B278" s="21" t="s">
         <v>614</v>
       </c>
@@ -17741,13 +17735,13 @@
       <c r="G278" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H278" s="59"/>
-      <c r="I278" s="59"/>
-      <c r="J278" s="59"/>
-      <c r="K278" s="59"/>
+      <c r="H278" s="57"/>
+      <c r="I278" s="57"/>
+      <c r="J278" s="57"/>
+      <c r="K278" s="57"/>
     </row>
     <row r="279" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="62"/>
+      <c r="A279" s="59"/>
       <c r="B279" s="21" t="s">
         <v>357</v>
       </c>
@@ -17766,13 +17760,13 @@
       <c r="G279" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H279" s="59"/>
-      <c r="I279" s="59"/>
-      <c r="J279" s="59"/>
-      <c r="K279" s="59"/>
+      <c r="H279" s="57"/>
+      <c r="I279" s="57"/>
+      <c r="J279" s="57"/>
+      <c r="K279" s="57"/>
     </row>
     <row r="280" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="62"/>
+      <c r="A280" s="59"/>
       <c r="B280" s="21" t="s">
         <v>535</v>
       </c>
@@ -17791,13 +17785,13 @@
       <c r="G280" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H280" s="59"/>
-      <c r="I280" s="59"/>
-      <c r="J280" s="59"/>
-      <c r="K280" s="59"/>
+      <c r="H280" s="57"/>
+      <c r="I280" s="57"/>
+      <c r="J280" s="57"/>
+      <c r="K280" s="57"/>
     </row>
     <row r="281" spans="1:11" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="62"/>
+      <c r="A281" s="59"/>
       <c r="B281" s="21" t="s">
         <v>729</v>
       </c>
@@ -17816,13 +17810,13 @@
       <c r="G281" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H281" s="59"/>
-      <c r="I281" s="59"/>
-      <c r="J281" s="59"/>
-      <c r="K281" s="59"/>
+      <c r="H281" s="57"/>
+      <c r="I281" s="57"/>
+      <c r="J281" s="57"/>
+      <c r="K281" s="57"/>
     </row>
     <row r="282" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="61" t="s">
+      <c r="A282" s="58" t="s">
         <v>742</v>
       </c>
       <c r="B282" s="21" t="s">
@@ -17843,21 +17837,21 @@
       <c r="G282" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H282" s="58" t="s">
+      <c r="H282" s="56" t="s">
         <v>991</v>
       </c>
-      <c r="I282" s="58" t="s">
+      <c r="I282" s="56" t="s">
         <v>992</v>
       </c>
-      <c r="J282" s="58" t="s">
+      <c r="J282" s="56" t="s">
         <v>993</v>
       </c>
-      <c r="K282" s="58" t="s">
+      <c r="K282" s="56" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="61"/>
+      <c r="A283" s="58"/>
       <c r="B283" s="21" t="s">
         <v>384</v>
       </c>
@@ -17876,13 +17870,13 @@
       <c r="G283" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H283" s="59"/>
-      <c r="I283" s="59"/>
-      <c r="J283" s="59"/>
-      <c r="K283" s="59"/>
+      <c r="H283" s="57"/>
+      <c r="I283" s="57"/>
+      <c r="J283" s="57"/>
+      <c r="K283" s="57"/>
     </row>
     <row r="284" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="61"/>
+      <c r="A284" s="58"/>
       <c r="B284" s="21" t="s">
         <v>388</v>
       </c>
@@ -17901,13 +17895,13 @@
       <c r="G284" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H284" s="59"/>
-      <c r="I284" s="59"/>
-      <c r="J284" s="59"/>
-      <c r="K284" s="59"/>
+      <c r="H284" s="57"/>
+      <c r="I284" s="57"/>
+      <c r="J284" s="57"/>
+      <c r="K284" s="57"/>
     </row>
     <row r="285" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="61"/>
+      <c r="A285" s="58"/>
       <c r="B285" s="21" t="s">
         <v>391</v>
       </c>
@@ -17926,13 +17920,13 @@
       <c r="G285" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H285" s="59"/>
-      <c r="I285" s="59"/>
-      <c r="J285" s="59"/>
-      <c r="K285" s="59"/>
+      <c r="H285" s="57"/>
+      <c r="I285" s="57"/>
+      <c r="J285" s="57"/>
+      <c r="K285" s="57"/>
     </row>
     <row r="286" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="61"/>
+      <c r="A286" s="58"/>
       <c r="B286" s="23" t="s">
         <v>744</v>
       </c>
@@ -17951,13 +17945,13 @@
       <c r="G286" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H286" s="59"/>
-      <c r="I286" s="59"/>
-      <c r="J286" s="59"/>
-      <c r="K286" s="59"/>
+      <c r="H286" s="57"/>
+      <c r="I286" s="57"/>
+      <c r="J286" s="57"/>
+      <c r="K286" s="57"/>
     </row>
     <row r="287" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="61"/>
+      <c r="A287" s="58"/>
       <c r="B287" s="21" t="s">
         <v>470</v>
       </c>
@@ -17976,13 +17970,13 @@
       <c r="G287" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H287" s="59"/>
-      <c r="I287" s="59"/>
-      <c r="J287" s="59"/>
-      <c r="K287" s="59"/>
+      <c r="H287" s="57"/>
+      <c r="I287" s="57"/>
+      <c r="J287" s="57"/>
+      <c r="K287" s="57"/>
     </row>
     <row r="288" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="61"/>
+      <c r="A288" s="58"/>
       <c r="B288" s="21" t="s">
         <v>746</v>
       </c>
@@ -18001,13 +17995,13 @@
       <c r="G288" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H288" s="59"/>
-      <c r="I288" s="59"/>
-      <c r="J288" s="59"/>
-      <c r="K288" s="59"/>
+      <c r="H288" s="57"/>
+      <c r="I288" s="57"/>
+      <c r="J288" s="57"/>
+      <c r="K288" s="57"/>
     </row>
     <row r="289" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="61"/>
+      <c r="A289" s="58"/>
       <c r="B289" s="21" t="s">
         <v>748</v>
       </c>
@@ -18026,13 +18020,13 @@
       <c r="G289" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H289" s="59"/>
-      <c r="I289" s="59"/>
-      <c r="J289" s="59"/>
-      <c r="K289" s="59"/>
+      <c r="H289" s="57"/>
+      <c r="I289" s="57"/>
+      <c r="J289" s="57"/>
+      <c r="K289" s="57"/>
     </row>
     <row r="290" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="61"/>
+      <c r="A290" s="58"/>
       <c r="B290" s="21" t="s">
         <v>467</v>
       </c>
@@ -18051,13 +18045,13 @@
       <c r="G290" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H290" s="59"/>
-      <c r="I290" s="59"/>
-      <c r="J290" s="59"/>
-      <c r="K290" s="59"/>
+      <c r="H290" s="57"/>
+      <c r="I290" s="57"/>
+      <c r="J290" s="57"/>
+      <c r="K290" s="57"/>
     </row>
     <row r="291" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="61"/>
+      <c r="A291" s="58"/>
       <c r="B291" s="21" t="s">
         <v>750</v>
       </c>
@@ -18076,13 +18070,13 @@
       <c r="G291" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H291" s="59"/>
-      <c r="I291" s="59"/>
-      <c r="J291" s="59"/>
-      <c r="K291" s="59"/>
+      <c r="H291" s="57"/>
+      <c r="I291" s="57"/>
+      <c r="J291" s="57"/>
+      <c r="K291" s="57"/>
     </row>
     <row r="292" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="61"/>
+      <c r="A292" s="58"/>
       <c r="B292" s="21" t="s">
         <v>433</v>
       </c>
@@ -18101,13 +18095,13 @@
       <c r="G292" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H292" s="59"/>
-      <c r="I292" s="59"/>
-      <c r="J292" s="59"/>
-      <c r="K292" s="59"/>
+      <c r="H292" s="57"/>
+      <c r="I292" s="57"/>
+      <c r="J292" s="57"/>
+      <c r="K292" s="57"/>
     </row>
     <row r="293" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="61"/>
+      <c r="A293" s="58"/>
       <c r="B293" s="21" t="s">
         <v>399</v>
       </c>
@@ -18126,13 +18120,13 @@
       <c r="G293" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H293" s="59"/>
-      <c r="I293" s="59"/>
-      <c r="J293" s="59"/>
-      <c r="K293" s="59"/>
+      <c r="H293" s="57"/>
+      <c r="I293" s="57"/>
+      <c r="J293" s="57"/>
+      <c r="K293" s="57"/>
     </row>
     <row r="294" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="61"/>
+      <c r="A294" s="58"/>
       <c r="B294" s="21" t="s">
         <v>426</v>
       </c>
@@ -18151,13 +18145,13 @@
       <c r="G294" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H294" s="59"/>
-      <c r="I294" s="59"/>
-      <c r="J294" s="59"/>
-      <c r="K294" s="59"/>
+      <c r="H294" s="57"/>
+      <c r="I294" s="57"/>
+      <c r="J294" s="57"/>
+      <c r="K294" s="57"/>
     </row>
     <row r="295" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="61"/>
+      <c r="A295" s="58"/>
       <c r="B295" s="21" t="s">
         <v>618</v>
       </c>
@@ -18176,13 +18170,13 @@
       <c r="G295" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H295" s="59"/>
-      <c r="I295" s="59"/>
-      <c r="J295" s="59"/>
-      <c r="K295" s="59"/>
+      <c r="H295" s="57"/>
+      <c r="I295" s="57"/>
+      <c r="J295" s="57"/>
+      <c r="K295" s="57"/>
     </row>
     <row r="296" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="61"/>
+      <c r="A296" s="58"/>
       <c r="B296" s="21" t="s">
         <v>465</v>
       </c>
@@ -18201,13 +18195,13 @@
       <c r="G296" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H296" s="59"/>
-      <c r="I296" s="59"/>
-      <c r="J296" s="59"/>
-      <c r="K296" s="59"/>
+      <c r="H296" s="57"/>
+      <c r="I296" s="57"/>
+      <c r="J296" s="57"/>
+      <c r="K296" s="57"/>
     </row>
     <row r="297" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="61"/>
+      <c r="A297" s="58"/>
       <c r="B297" s="21" t="s">
         <v>753</v>
       </c>
@@ -18226,13 +18220,13 @@
       <c r="G297" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H297" s="59"/>
-      <c r="I297" s="59"/>
-      <c r="J297" s="59"/>
-      <c r="K297" s="59"/>
+      <c r="H297" s="57"/>
+      <c r="I297" s="57"/>
+      <c r="J297" s="57"/>
+      <c r="K297" s="57"/>
     </row>
     <row r="298" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="61"/>
+      <c r="A298" s="58"/>
       <c r="B298" s="21" t="s">
         <v>439</v>
       </c>
@@ -18251,13 +18245,13 @@
       <c r="G298" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H298" s="59"/>
-      <c r="I298" s="59"/>
-      <c r="J298" s="59"/>
-      <c r="K298" s="59"/>
+      <c r="H298" s="57"/>
+      <c r="I298" s="57"/>
+      <c r="J298" s="57"/>
+      <c r="K298" s="57"/>
     </row>
     <row r="299" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="61"/>
+      <c r="A299" s="58"/>
       <c r="B299" s="21" t="s">
         <v>755</v>
       </c>
@@ -18276,13 +18270,13 @@
       <c r="G299" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H299" s="59"/>
-      <c r="I299" s="59"/>
-      <c r="J299" s="59"/>
-      <c r="K299" s="59"/>
+      <c r="H299" s="57"/>
+      <c r="I299" s="57"/>
+      <c r="J299" s="57"/>
+      <c r="K299" s="57"/>
     </row>
     <row r="300" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="61"/>
+      <c r="A300" s="58"/>
       <c r="B300" s="21" t="s">
         <v>500</v>
       </c>
@@ -18301,13 +18295,13 @@
       <c r="G300" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H300" s="59"/>
-      <c r="I300" s="59"/>
-      <c r="J300" s="59"/>
-      <c r="K300" s="59"/>
+      <c r="H300" s="57"/>
+      <c r="I300" s="57"/>
+      <c r="J300" s="57"/>
+      <c r="K300" s="57"/>
     </row>
     <row r="301" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="61"/>
+      <c r="A301" s="58"/>
       <c r="B301" s="21" t="s">
         <v>389</v>
       </c>
@@ -18326,13 +18320,13 @@
       <c r="G301" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H301" s="59"/>
-      <c r="I301" s="59"/>
-      <c r="J301" s="59"/>
-      <c r="K301" s="59"/>
+      <c r="H301" s="57"/>
+      <c r="I301" s="57"/>
+      <c r="J301" s="57"/>
+      <c r="K301" s="57"/>
     </row>
     <row r="302" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="61"/>
+      <c r="A302" s="58"/>
       <c r="B302" s="21" t="s">
         <v>621</v>
       </c>
@@ -18351,13 +18345,13 @@
       <c r="G302" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H302" s="59"/>
-      <c r="I302" s="59"/>
-      <c r="J302" s="59"/>
-      <c r="K302" s="59"/>
+      <c r="H302" s="57"/>
+      <c r="I302" s="57"/>
+      <c r="J302" s="57"/>
+      <c r="K302" s="57"/>
     </row>
     <row r="303" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="61"/>
+      <c r="A303" s="58"/>
       <c r="B303" s="21" t="s">
         <v>392</v>
       </c>
@@ -18376,13 +18370,13 @@
       <c r="G303" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H303" s="59"/>
-      <c r="I303" s="59"/>
-      <c r="J303" s="59"/>
-      <c r="K303" s="59"/>
+      <c r="H303" s="57"/>
+      <c r="I303" s="57"/>
+      <c r="J303" s="57"/>
+      <c r="K303" s="57"/>
     </row>
     <row r="304" spans="1:11" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="61"/>
+      <c r="A304" s="58"/>
       <c r="B304" s="21" t="s">
         <v>758</v>
       </c>
@@ -18401,13 +18395,13 @@
       <c r="G304" s="24" t="s">
         <v>922</v>
       </c>
-      <c r="H304" s="59"/>
-      <c r="I304" s="59"/>
-      <c r="J304" s="59"/>
-      <c r="K304" s="59"/>
+      <c r="H304" s="57"/>
+      <c r="I304" s="57"/>
+      <c r="J304" s="57"/>
+      <c r="K304" s="57"/>
     </row>
     <row r="305" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="61"/>
+      <c r="A305" s="58"/>
       <c r="B305" s="21" t="s">
         <v>395</v>
       </c>
@@ -18426,13 +18420,13 @@
       <c r="G305" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H305" s="59"/>
-      <c r="I305" s="59"/>
-      <c r="J305" s="59"/>
-      <c r="K305" s="59"/>
+      <c r="H305" s="57"/>
+      <c r="I305" s="57"/>
+      <c r="J305" s="57"/>
+      <c r="K305" s="57"/>
     </row>
     <row r="306" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="61"/>
+      <c r="A306" s="58"/>
       <c r="B306" s="21" t="s">
         <v>385</v>
       </c>
@@ -18451,13 +18445,13 @@
       <c r="G306" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H306" s="59"/>
-      <c r="I306" s="59"/>
-      <c r="J306" s="59"/>
-      <c r="K306" s="59"/>
+      <c r="H306" s="57"/>
+      <c r="I306" s="57"/>
+      <c r="J306" s="57"/>
+      <c r="K306" s="57"/>
     </row>
     <row r="307" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="62" t="s">
+      <c r="A307" s="59" t="s">
         <v>799</v>
       </c>
       <c r="B307" s="21" t="s">
@@ -18478,21 +18472,21 @@
       <c r="G307" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H307" s="58" t="s">
+      <c r="H307" s="56" t="s">
         <v>995</v>
       </c>
-      <c r="I307" s="58" t="s">
+      <c r="I307" s="56" t="s">
         <v>996</v>
       </c>
-      <c r="J307" s="58" t="s">
+      <c r="J307" s="56" t="s">
         <v>997</v>
       </c>
-      <c r="K307" s="58" t="s">
+      <c r="K307" s="56" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="62"/>
+      <c r="A308" s="59"/>
       <c r="B308" s="21" t="s">
         <v>785</v>
       </c>
@@ -18511,13 +18505,13 @@
       <c r="G308" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="H308" s="59"/>
-      <c r="I308" s="59"/>
-      <c r="J308" s="59"/>
-      <c r="K308" s="59"/>
+      <c r="H308" s="57"/>
+      <c r="I308" s="57"/>
+      <c r="J308" s="57"/>
+      <c r="K308" s="57"/>
     </row>
     <row r="309" spans="1:11" ht="202.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="62"/>
+      <c r="A309" s="59"/>
       <c r="B309" s="21" t="s">
         <v>787</v>
       </c>
@@ -18536,13 +18530,13 @@
       <c r="G309" s="24" t="s">
         <v>948</v>
       </c>
-      <c r="H309" s="59"/>
-      <c r="I309" s="59"/>
-      <c r="J309" s="59"/>
-      <c r="K309" s="59"/>
+      <c r="H309" s="57"/>
+      <c r="I309" s="57"/>
+      <c r="J309" s="57"/>
+      <c r="K309" s="57"/>
     </row>
     <row r="310" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="62"/>
+      <c r="A310" s="59"/>
       <c r="B310" s="21" t="s">
         <v>789</v>
       </c>
@@ -18561,13 +18555,13 @@
       <c r="G310" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H310" s="59"/>
-      <c r="I310" s="59"/>
-      <c r="J310" s="59"/>
-      <c r="K310" s="59"/>
+      <c r="H310" s="57"/>
+      <c r="I310" s="57"/>
+      <c r="J310" s="57"/>
+      <c r="K310" s="57"/>
     </row>
     <row r="311" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="62"/>
+      <c r="A311" s="59"/>
       <c r="B311" s="21" t="s">
         <v>791</v>
       </c>
@@ -18586,13 +18580,13 @@
       <c r="G311" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H311" s="59"/>
-      <c r="I311" s="59"/>
-      <c r="J311" s="59"/>
-      <c r="K311" s="59"/>
+      <c r="H311" s="57"/>
+      <c r="I311" s="57"/>
+      <c r="J311" s="57"/>
+      <c r="K311" s="57"/>
     </row>
     <row r="312" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="62"/>
+      <c r="A312" s="59"/>
       <c r="B312" s="21" t="s">
         <v>793</v>
       </c>
@@ -18611,13 +18605,13 @@
       <c r="G312" s="24" t="s">
         <v>921</v>
       </c>
-      <c r="H312" s="59"/>
-      <c r="I312" s="59"/>
-      <c r="J312" s="59"/>
-      <c r="K312" s="59"/>
+      <c r="H312" s="57"/>
+      <c r="I312" s="57"/>
+      <c r="J312" s="57"/>
+      <c r="K312" s="57"/>
     </row>
     <row r="313" spans="1:11" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="62"/>
+      <c r="A313" s="59"/>
       <c r="B313" s="21" t="s">
         <v>795</v>
       </c>
@@ -18636,13 +18630,13 @@
       <c r="G313" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H313" s="59"/>
-      <c r="I313" s="59"/>
-      <c r="J313" s="59"/>
-      <c r="K313" s="59"/>
+      <c r="H313" s="57"/>
+      <c r="I313" s="57"/>
+      <c r="J313" s="57"/>
+      <c r="K313" s="57"/>
     </row>
     <row r="314" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="62"/>
+      <c r="A314" s="59"/>
       <c r="B314" s="21" t="s">
         <v>797</v>
       </c>
@@ -18661,13 +18655,13 @@
       <c r="G314" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H314" s="59"/>
-      <c r="I314" s="59"/>
-      <c r="J314" s="59"/>
-      <c r="K314" s="59"/>
+      <c r="H314" s="57"/>
+      <c r="I314" s="57"/>
+      <c r="J314" s="57"/>
+      <c r="K314" s="57"/>
     </row>
     <row r="315" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="62"/>
+      <c r="A315" s="59"/>
       <c r="B315" s="21" t="s">
         <v>800</v>
       </c>
@@ -18686,13 +18680,13 @@
       <c r="G315" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H315" s="59"/>
-      <c r="I315" s="59"/>
-      <c r="J315" s="59"/>
-      <c r="K315" s="59"/>
+      <c r="H315" s="57"/>
+      <c r="I315" s="57"/>
+      <c r="J315" s="57"/>
+      <c r="K315" s="57"/>
     </row>
     <row r="316" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="62"/>
+      <c r="A316" s="59"/>
       <c r="B316" s="21" t="s">
         <v>800</v>
       </c>
@@ -18711,13 +18705,13 @@
       <c r="G316" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H316" s="59"/>
-      <c r="I316" s="59"/>
-      <c r="J316" s="59"/>
-      <c r="K316" s="59"/>
+      <c r="H316" s="57"/>
+      <c r="I316" s="57"/>
+      <c r="J316" s="57"/>
+      <c r="K316" s="57"/>
     </row>
     <row r="317" spans="1:11" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="62"/>
+      <c r="A317" s="59"/>
       <c r="B317" s="21" t="s">
         <v>803</v>
       </c>
@@ -18736,13 +18730,13 @@
       <c r="G317" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H317" s="59"/>
-      <c r="I317" s="59"/>
-      <c r="J317" s="59"/>
-      <c r="K317" s="59"/>
+      <c r="H317" s="57"/>
+      <c r="I317" s="57"/>
+      <c r="J317" s="57"/>
+      <c r="K317" s="57"/>
     </row>
     <row r="318" spans="1:11" ht="130.80000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="62"/>
+      <c r="A318" s="59"/>
       <c r="B318" s="21" t="s">
         <v>805</v>
       </c>
@@ -18761,13 +18755,13 @@
       <c r="G318" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H318" s="59"/>
-      <c r="I318" s="59"/>
-      <c r="J318" s="59"/>
-      <c r="K318" s="59"/>
+      <c r="H318" s="57"/>
+      <c r="I318" s="57"/>
+      <c r="J318" s="57"/>
+      <c r="K318" s="57"/>
     </row>
     <row r="319" spans="1:11" ht="375.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="62"/>
+      <c r="A319" s="59"/>
       <c r="B319" s="21" t="s">
         <v>807</v>
       </c>
@@ -18786,13 +18780,13 @@
       <c r="G319" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="H319" s="59"/>
-      <c r="I319" s="59"/>
-      <c r="J319" s="59"/>
-      <c r="K319" s="59"/>
+      <c r="H319" s="57"/>
+      <c r="I319" s="57"/>
+      <c r="J319" s="57"/>
+      <c r="K319" s="57"/>
     </row>
     <row r="320" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="62"/>
+      <c r="A320" s="59"/>
       <c r="B320" s="21" t="s">
         <v>809</v>
       </c>
@@ -18811,13 +18805,13 @@
       <c r="G320" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="H320" s="59"/>
-      <c r="I320" s="59"/>
-      <c r="J320" s="59"/>
-      <c r="K320" s="59"/>
+      <c r="H320" s="57"/>
+      <c r="I320" s="57"/>
+      <c r="J320" s="57"/>
+      <c r="K320" s="57"/>
     </row>
     <row r="321" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="62"/>
+      <c r="A321" s="59"/>
       <c r="B321" s="23" t="s">
         <v>811</v>
       </c>
@@ -18836,13 +18830,13 @@
       <c r="G321" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="H321" s="59"/>
-      <c r="I321" s="59"/>
-      <c r="J321" s="59"/>
-      <c r="K321" s="59"/>
+      <c r="H321" s="57"/>
+      <c r="I321" s="57"/>
+      <c r="J321" s="57"/>
+      <c r="K321" s="57"/>
     </row>
     <row r="322" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="62"/>
+      <c r="A322" s="59"/>
       <c r="B322" s="21" t="s">
         <v>813</v>
       </c>
@@ -18861,13 +18855,13 @@
       <c r="G322" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="H322" s="59"/>
-      <c r="I322" s="59"/>
-      <c r="J322" s="59"/>
-      <c r="K322" s="59"/>
+      <c r="H322" s="57"/>
+      <c r="I322" s="57"/>
+      <c r="J322" s="57"/>
+      <c r="K322" s="57"/>
     </row>
     <row r="323" spans="1:11" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="62"/>
+      <c r="A323" s="59"/>
       <c r="B323" s="21" t="s">
         <v>815</v>
       </c>
@@ -18886,13 +18880,13 @@
       <c r="G323" s="24" t="s">
         <v>994</v>
       </c>
-      <c r="H323" s="59"/>
-      <c r="I323" s="59"/>
-      <c r="J323" s="59"/>
-      <c r="K323" s="59"/>
+      <c r="H323" s="57"/>
+      <c r="I323" s="57"/>
+      <c r="J323" s="57"/>
+      <c r="K323" s="57"/>
     </row>
     <row r="324" spans="1:11" ht="102" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="62"/>
+      <c r="A324" s="59"/>
       <c r="B324" s="23" t="s">
         <v>817</v>
       </c>
@@ -18911,13 +18905,13 @@
       <c r="G324" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="H324" s="59"/>
-      <c r="I324" s="59"/>
-      <c r="J324" s="59"/>
-      <c r="K324" s="59"/>
+      <c r="H324" s="57"/>
+      <c r="I324" s="57"/>
+      <c r="J324" s="57"/>
+      <c r="K324" s="57"/>
     </row>
     <row r="325" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="61" t="s">
+      <c r="A325" s="58" t="s">
         <v>22</v>
       </c>
       <c r="B325" s="21" t="s">
@@ -18938,21 +18932,21 @@
       <c r="G325" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H325" s="58" t="s">
+      <c r="H325" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="I325" s="58" t="s">
+      <c r="I325" s="56" t="s">
         <v>1002</v>
       </c>
-      <c r="J325" s="58" t="s">
+      <c r="J325" s="56" t="s">
         <v>1003</v>
       </c>
-      <c r="K325" s="58" t="s">
+      <c r="K325" s="56" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="326" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="61"/>
+      <c r="A326" s="58"/>
       <c r="B326" s="23" t="s">
         <v>856</v>
       </c>
@@ -18971,13 +18965,13 @@
       <c r="G326" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H326" s="59"/>
-      <c r="I326" s="59"/>
-      <c r="J326" s="59"/>
-      <c r="K326" s="59"/>
+      <c r="H326" s="57"/>
+      <c r="I326" s="57"/>
+      <c r="J326" s="57"/>
+      <c r="K326" s="57"/>
     </row>
     <row r="327" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="61"/>
+      <c r="A327" s="58"/>
       <c r="B327" s="21" t="s">
         <v>858</v>
       </c>
@@ -18996,13 +18990,13 @@
       <c r="G327" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H327" s="59"/>
-      <c r="I327" s="59"/>
-      <c r="J327" s="59"/>
-      <c r="K327" s="59"/>
+      <c r="H327" s="57"/>
+      <c r="I327" s="57"/>
+      <c r="J327" s="57"/>
+      <c r="K327" s="57"/>
     </row>
     <row r="328" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="61"/>
+      <c r="A328" s="58"/>
       <c r="B328" s="21" t="s">
         <v>860</v>
       </c>
@@ -19021,13 +19015,13 @@
       <c r="G328" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H328" s="59"/>
-      <c r="I328" s="59"/>
-      <c r="J328" s="59"/>
-      <c r="K328" s="59"/>
+      <c r="H328" s="57"/>
+      <c r="I328" s="57"/>
+      <c r="J328" s="57"/>
+      <c r="K328" s="57"/>
     </row>
     <row r="329" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="61"/>
+      <c r="A329" s="58"/>
       <c r="B329" s="21" t="s">
         <v>862</v>
       </c>
@@ -19046,13 +19040,13 @@
       <c r="G329" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H329" s="59"/>
-      <c r="I329" s="59"/>
-      <c r="J329" s="59"/>
-      <c r="K329" s="59"/>
+      <c r="H329" s="57"/>
+      <c r="I329" s="57"/>
+      <c r="J329" s="57"/>
+      <c r="K329" s="57"/>
     </row>
     <row r="330" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="61"/>
+      <c r="A330" s="58"/>
       <c r="B330" s="21" t="s">
         <v>864</v>
       </c>
@@ -19071,13 +19065,13 @@
       <c r="G330" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="H330" s="59"/>
-      <c r="I330" s="59"/>
-      <c r="J330" s="59"/>
-      <c r="K330" s="59"/>
+      <c r="H330" s="57"/>
+      <c r="I330" s="57"/>
+      <c r="J330" s="57"/>
+      <c r="K330" s="57"/>
     </row>
     <row r="331" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="61"/>
+      <c r="A331" s="58"/>
       <c r="B331" s="21" t="s">
         <v>865</v>
       </c>
@@ -19096,13 +19090,13 @@
       <c r="G331" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="H331" s="59"/>
-      <c r="I331" s="59"/>
-      <c r="J331" s="59"/>
-      <c r="K331" s="59"/>
+      <c r="H331" s="57"/>
+      <c r="I331" s="57"/>
+      <c r="J331" s="57"/>
+      <c r="K331" s="57"/>
     </row>
     <row r="332" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="61"/>
+      <c r="A332" s="58"/>
       <c r="B332" s="21" t="s">
         <v>867</v>
       </c>
@@ -19121,13 +19115,13 @@
       <c r="G332" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="H332" s="59"/>
-      <c r="I332" s="59"/>
-      <c r="J332" s="59"/>
-      <c r="K332" s="59"/>
+      <c r="H332" s="57"/>
+      <c r="I332" s="57"/>
+      <c r="J332" s="57"/>
+      <c r="K332" s="57"/>
     </row>
     <row r="333" spans="1:11" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="61"/>
+      <c r="A333" s="58"/>
       <c r="B333" s="21" t="s">
         <v>869</v>
       </c>
@@ -19146,13 +19140,13 @@
       <c r="G333" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="H333" s="59"/>
-      <c r="I333" s="59"/>
-      <c r="J333" s="59"/>
-      <c r="K333" s="59"/>
+      <c r="H333" s="57"/>
+      <c r="I333" s="57"/>
+      <c r="J333" s="57"/>
+      <c r="K333" s="57"/>
     </row>
     <row r="334" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="61"/>
+      <c r="A334" s="58"/>
       <c r="B334" s="21" t="s">
         <v>871</v>
       </c>
@@ -19171,13 +19165,13 @@
       <c r="G334" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="H334" s="59"/>
-      <c r="I334" s="59"/>
-      <c r="J334" s="59"/>
-      <c r="K334" s="59"/>
+      <c r="H334" s="57"/>
+      <c r="I334" s="57"/>
+      <c r="J334" s="57"/>
+      <c r="K334" s="57"/>
     </row>
     <row r="335" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="61"/>
+      <c r="A335" s="58"/>
       <c r="B335" s="23" t="s">
         <v>873</v>
       </c>
@@ -19196,13 +19190,13 @@
       <c r="G335" s="24" t="s">
         <v>924</v>
       </c>
-      <c r="H335" s="59"/>
-      <c r="I335" s="59"/>
-      <c r="J335" s="59"/>
-      <c r="K335" s="59"/>
+      <c r="H335" s="57"/>
+      <c r="I335" s="57"/>
+      <c r="J335" s="57"/>
+      <c r="K335" s="57"/>
     </row>
     <row r="336" spans="1:11" ht="289.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="61"/>
+      <c r="A336" s="58"/>
       <c r="B336" s="21" t="s">
         <v>875</v>
       </c>
@@ -19221,13 +19215,13 @@
       <c r="G336" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="H336" s="59"/>
-      <c r="I336" s="59"/>
-      <c r="J336" s="59"/>
-      <c r="K336" s="59"/>
+      <c r="H336" s="57"/>
+      <c r="I336" s="57"/>
+      <c r="J336" s="57"/>
+      <c r="K336" s="57"/>
     </row>
     <row r="337" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="61"/>
+      <c r="A337" s="58"/>
       <c r="B337" s="21" t="s">
         <v>877</v>
       </c>
@@ -19246,13 +19240,13 @@
       <c r="G337" s="24" t="s">
         <v>1008</v>
       </c>
-      <c r="H337" s="59"/>
-      <c r="I337" s="59"/>
-      <c r="J337" s="59"/>
-      <c r="K337" s="59"/>
+      <c r="H337" s="57"/>
+      <c r="I337" s="57"/>
+      <c r="J337" s="57"/>
+      <c r="K337" s="57"/>
     </row>
     <row r="338" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="61"/>
+      <c r="A338" s="58"/>
       <c r="B338" s="21" t="s">
         <v>879</v>
       </c>
@@ -19271,13 +19265,13 @@
       <c r="G338" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="H338" s="59"/>
-      <c r="I338" s="59"/>
-      <c r="J338" s="59"/>
-      <c r="K338" s="59"/>
+      <c r="H338" s="57"/>
+      <c r="I338" s="57"/>
+      <c r="J338" s="57"/>
+      <c r="K338" s="57"/>
     </row>
     <row r="339" spans="1:11" ht="217.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="61"/>
+      <c r="A339" s="58"/>
       <c r="B339" s="21" t="s">
         <v>881</v>
       </c>
@@ -19296,13 +19290,13 @@
       <c r="G339" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="H339" s="59"/>
-      <c r="I339" s="59"/>
-      <c r="J339" s="59"/>
-      <c r="K339" s="59"/>
+      <c r="H339" s="57"/>
+      <c r="I339" s="57"/>
+      <c r="J339" s="57"/>
+      <c r="K339" s="57"/>
     </row>
     <row r="340" spans="1:11" ht="231.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="61"/>
+      <c r="A340" s="58"/>
       <c r="B340" s="21" t="s">
         <v>883</v>
       </c>
@@ -19321,13 +19315,13 @@
       <c r="G340" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="H340" s="59"/>
-      <c r="I340" s="59"/>
-      <c r="J340" s="59"/>
-      <c r="K340" s="59"/>
+      <c r="H340" s="57"/>
+      <c r="I340" s="57"/>
+      <c r="J340" s="57"/>
+      <c r="K340" s="57"/>
     </row>
     <row r="341" spans="1:11" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="61"/>
+      <c r="A341" s="58"/>
       <c r="B341" s="21" t="s">
         <v>885</v>
       </c>
@@ -19346,13 +19340,13 @@
       <c r="G341" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="H341" s="59"/>
-      <c r="I341" s="59"/>
-      <c r="J341" s="59"/>
-      <c r="K341" s="59"/>
+      <c r="H341" s="57"/>
+      <c r="I341" s="57"/>
+      <c r="J341" s="57"/>
+      <c r="K341" s="57"/>
     </row>
     <row r="342" spans="1:11" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="61"/>
+      <c r="A342" s="58"/>
       <c r="B342" s="23" t="s">
         <v>887</v>
       </c>
@@ -19371,94 +19365,31 @@
       <c r="G342" s="27" t="s">
         <v>939</v>
       </c>
-      <c r="H342" s="59"/>
-      <c r="I342" s="59"/>
-      <c r="J342" s="59"/>
-      <c r="K342" s="59"/>
+      <c r="H342" s="57"/>
+      <c r="I342" s="57"/>
+      <c r="J342" s="57"/>
+      <c r="K342" s="57"/>
     </row>
     <row r="343" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A325:A342"/>
-    <mergeCell ref="H325:H342"/>
-    <mergeCell ref="I325:I342"/>
-    <mergeCell ref="J325:J342"/>
-    <mergeCell ref="K325:K342"/>
-    <mergeCell ref="A307:A324"/>
-    <mergeCell ref="H307:H324"/>
-    <mergeCell ref="I307:I324"/>
-    <mergeCell ref="J307:J324"/>
-    <mergeCell ref="K307:K324"/>
-    <mergeCell ref="A282:A306"/>
-    <mergeCell ref="H282:H306"/>
-    <mergeCell ref="I282:I306"/>
-    <mergeCell ref="J282:J306"/>
-    <mergeCell ref="K282:K306"/>
-    <mergeCell ref="A259:A281"/>
-    <mergeCell ref="H259:H281"/>
-    <mergeCell ref="I259:I281"/>
-    <mergeCell ref="J259:J281"/>
-    <mergeCell ref="K259:K281"/>
-    <mergeCell ref="A239:A258"/>
-    <mergeCell ref="H239:H258"/>
-    <mergeCell ref="I239:I258"/>
-    <mergeCell ref="J239:J258"/>
-    <mergeCell ref="K239:K258"/>
-    <mergeCell ref="A220:A238"/>
-    <mergeCell ref="H220:H238"/>
-    <mergeCell ref="I220:I238"/>
-    <mergeCell ref="J220:J238"/>
-    <mergeCell ref="K220:K238"/>
-    <mergeCell ref="A201:A219"/>
-    <mergeCell ref="H201:H219"/>
-    <mergeCell ref="I201:I219"/>
-    <mergeCell ref="J201:J219"/>
-    <mergeCell ref="K201:K219"/>
-    <mergeCell ref="A184:A200"/>
-    <mergeCell ref="H184:H200"/>
-    <mergeCell ref="I184:I200"/>
-    <mergeCell ref="J184:J200"/>
-    <mergeCell ref="K184:K200"/>
-    <mergeCell ref="A168:A183"/>
-    <mergeCell ref="H168:H183"/>
-    <mergeCell ref="I168:I183"/>
-    <mergeCell ref="J168:J183"/>
-    <mergeCell ref="K168:K183"/>
-    <mergeCell ref="A153:A167"/>
-    <mergeCell ref="H153:H167"/>
-    <mergeCell ref="I153:I167"/>
-    <mergeCell ref="J153:J167"/>
-    <mergeCell ref="K153:K167"/>
-    <mergeCell ref="A138:A152"/>
-    <mergeCell ref="H138:H152"/>
-    <mergeCell ref="I138:I152"/>
-    <mergeCell ref="J138:J152"/>
-    <mergeCell ref="K138:K152"/>
-    <mergeCell ref="A123:A137"/>
-    <mergeCell ref="H123:H137"/>
-    <mergeCell ref="I123:I137"/>
-    <mergeCell ref="J123:J137"/>
-    <mergeCell ref="K123:K137"/>
-    <mergeCell ref="A108:A122"/>
-    <mergeCell ref="H108:H122"/>
-    <mergeCell ref="I108:I122"/>
-    <mergeCell ref="J108:J122"/>
-    <mergeCell ref="K108:K122"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="H93:H107"/>
-    <mergeCell ref="I93:I107"/>
-    <mergeCell ref="J93:J107"/>
-    <mergeCell ref="K93:K107"/>
-    <mergeCell ref="A79:A92"/>
-    <mergeCell ref="H79:H92"/>
-    <mergeCell ref="I79:I92"/>
-    <mergeCell ref="J79:J92"/>
-    <mergeCell ref="K79:K92"/>
-    <mergeCell ref="A66:A78"/>
-    <mergeCell ref="H66:H78"/>
-    <mergeCell ref="I66:I78"/>
-    <mergeCell ref="J66:J78"/>
-    <mergeCell ref="K66:K78"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="I22:I31"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="J22:J31"/>
+    <mergeCell ref="K22:K31"/>
+    <mergeCell ref="J6:J12"/>
+    <mergeCell ref="K6:K12"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="I13:I21"/>
     <mergeCell ref="J13:J21"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="H54:H65"/>
@@ -19477,23 +19408,86 @@
     <mergeCell ref="J32:J42"/>
     <mergeCell ref="K32:K42"/>
     <mergeCell ref="A22:A31"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="I22:I31"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="J22:J31"/>
-    <mergeCell ref="K22:K31"/>
-    <mergeCell ref="J6:J12"/>
-    <mergeCell ref="K6:K12"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="I13:I21"/>
+    <mergeCell ref="A79:A92"/>
+    <mergeCell ref="H79:H92"/>
+    <mergeCell ref="I79:I92"/>
+    <mergeCell ref="J79:J92"/>
+    <mergeCell ref="K79:K92"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="H66:H78"/>
+    <mergeCell ref="I66:I78"/>
+    <mergeCell ref="J66:J78"/>
+    <mergeCell ref="K66:K78"/>
+    <mergeCell ref="A108:A122"/>
+    <mergeCell ref="H108:H122"/>
+    <mergeCell ref="I108:I122"/>
+    <mergeCell ref="J108:J122"/>
+    <mergeCell ref="K108:K122"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="H93:H107"/>
+    <mergeCell ref="I93:I107"/>
+    <mergeCell ref="J93:J107"/>
+    <mergeCell ref="K93:K107"/>
+    <mergeCell ref="A138:A152"/>
+    <mergeCell ref="H138:H152"/>
+    <mergeCell ref="I138:I152"/>
+    <mergeCell ref="J138:J152"/>
+    <mergeCell ref="K138:K152"/>
+    <mergeCell ref="A123:A137"/>
+    <mergeCell ref="H123:H137"/>
+    <mergeCell ref="I123:I137"/>
+    <mergeCell ref="J123:J137"/>
+    <mergeCell ref="K123:K137"/>
+    <mergeCell ref="A168:A183"/>
+    <mergeCell ref="H168:H183"/>
+    <mergeCell ref="I168:I183"/>
+    <mergeCell ref="J168:J183"/>
+    <mergeCell ref="K168:K183"/>
+    <mergeCell ref="A153:A167"/>
+    <mergeCell ref="H153:H167"/>
+    <mergeCell ref="I153:I167"/>
+    <mergeCell ref="J153:J167"/>
+    <mergeCell ref="K153:K167"/>
+    <mergeCell ref="A201:A219"/>
+    <mergeCell ref="H201:H219"/>
+    <mergeCell ref="I201:I219"/>
+    <mergeCell ref="J201:J219"/>
+    <mergeCell ref="K201:K219"/>
+    <mergeCell ref="A184:A200"/>
+    <mergeCell ref="H184:H200"/>
+    <mergeCell ref="I184:I200"/>
+    <mergeCell ref="J184:J200"/>
+    <mergeCell ref="K184:K200"/>
+    <mergeCell ref="A239:A258"/>
+    <mergeCell ref="H239:H258"/>
+    <mergeCell ref="I239:I258"/>
+    <mergeCell ref="J239:J258"/>
+    <mergeCell ref="K239:K258"/>
+    <mergeCell ref="A220:A238"/>
+    <mergeCell ref="H220:H238"/>
+    <mergeCell ref="I220:I238"/>
+    <mergeCell ref="J220:J238"/>
+    <mergeCell ref="K220:K238"/>
+    <mergeCell ref="A282:A306"/>
+    <mergeCell ref="H282:H306"/>
+    <mergeCell ref="I282:I306"/>
+    <mergeCell ref="J282:J306"/>
+    <mergeCell ref="K282:K306"/>
+    <mergeCell ref="A259:A281"/>
+    <mergeCell ref="H259:H281"/>
+    <mergeCell ref="I259:I281"/>
+    <mergeCell ref="J259:J281"/>
+    <mergeCell ref="K259:K281"/>
+    <mergeCell ref="A325:A342"/>
+    <mergeCell ref="H325:H342"/>
+    <mergeCell ref="I325:I342"/>
+    <mergeCell ref="J325:J342"/>
+    <mergeCell ref="K325:K342"/>
+    <mergeCell ref="A307:A324"/>
+    <mergeCell ref="H307:H324"/>
+    <mergeCell ref="I307:I324"/>
+    <mergeCell ref="J307:J324"/>
+    <mergeCell ref="K307:K324"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
